--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_23_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_23_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3140674.203142813</v>
+        <v>-3141368.693532988</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9219328.668728512</v>
+        <v>9219328.668728517</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15279268.23863287</v>
+        <v>15279268.23863286</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>103.6361464994338</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>75.07920029172769</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>103.6361464994338</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>44.68678342517414</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>16.2035175449734</v>
       </c>
       <c r="U11" t="n">
-        <v>46.5959344115283</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="X11" t="n">
-        <v>103.6361464994338</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>21.21399937876945</v>
+        <v>21.21399937876948</v>
       </c>
       <c r="V12" t="n">
-        <v>28.09075441968554</v>
+        <v>28.09075441968557</v>
       </c>
       <c r="W12" t="n">
-        <v>46.98515043117987</v>
+        <v>46.9851504311799</v>
       </c>
       <c r="X12" t="n">
-        <v>1.063152473737745</v>
+        <v>1.063152473737773</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9728630475646298</v>
+        <v>0.9728630475646582</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.40929043842153</v>
+        <v>15.40929043842156</v>
       </c>
       <c r="T13" t="n">
-        <v>22.28019426330902</v>
+        <v>22.28019426330905</v>
       </c>
       <c r="U13" t="n">
-        <v>81.5969979573652</v>
+        <v>81.59699795736523</v>
       </c>
       <c r="V13" t="n">
-        <v>47.42781059408827</v>
+        <v>47.4278105940883</v>
       </c>
       <c r="W13" t="n">
-        <v>81.81316560685127</v>
+        <v>81.8131656068513</v>
       </c>
       <c r="X13" t="n">
-        <v>20.99982265929742</v>
+        <v>20.99982265929745</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.87482062235506</v>
+        <v>13.87482062235509</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.48326588019933</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>16.20351754497338</v>
+        <v>16.20351754497332</v>
       </c>
       <c r="U14" t="n">
-        <v>46.5959344115283</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>103.6361464994336</v>
       </c>
       <c r="W14" t="n">
-        <v>103.6361464994336</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>103.6361464994336</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>75.07920029172772</v>
       </c>
     </row>
     <row r="15">
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>21.21399937876945</v>
+        <v>21.2139993787694</v>
       </c>
       <c r="V15" t="n">
-        <v>28.09075441968554</v>
+        <v>28.09075441968548</v>
       </c>
       <c r="W15" t="n">
-        <v>46.98515043117987</v>
+        <v>46.98515043117982</v>
       </c>
       <c r="X15" t="n">
-        <v>1.063152473737745</v>
+        <v>1.063152473737688</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9728630475646298</v>
+        <v>0.972863047564573</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.40929043842153</v>
+        <v>15.40929043842148</v>
       </c>
       <c r="T16" t="n">
-        <v>22.28019426330902</v>
+        <v>22.28019426330896</v>
       </c>
       <c r="U16" t="n">
-        <v>81.5969979573652</v>
+        <v>81.59699795736515</v>
       </c>
       <c r="V16" t="n">
-        <v>47.42781059408827</v>
+        <v>47.42781059408821</v>
       </c>
       <c r="W16" t="n">
-        <v>81.81316560685127</v>
+        <v>81.81316560685121</v>
       </c>
       <c r="X16" t="n">
-        <v>20.99982265929742</v>
+        <v>20.99982265929737</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.87482062235506</v>
+        <v>13.874820622355</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.36504088357981</v>
+        <v>48.36504088357975</v>
       </c>
       <c r="C17" t="n">
-        <v>30.90409099110678</v>
+        <v>30.90409099110673</v>
       </c>
       <c r="D17" t="n">
-        <v>20.31424084078219</v>
+        <v>20.31424084078213</v>
       </c>
       <c r="E17" t="n">
-        <v>47.56156929236101</v>
+        <v>47.56156929236096</v>
       </c>
       <c r="F17" t="n">
-        <v>72.50724496181067</v>
+        <v>72.50724496181061</v>
       </c>
       <c r="G17" t="n">
-        <v>80.43536465312843</v>
+        <v>80.4353646531284</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14.87216793751224</v>
+        <v>14.87216793751219</v>
       </c>
       <c r="X17" t="n">
-        <v>35.36229989856827</v>
+        <v>35.36229989856821</v>
       </c>
       <c r="Y17" t="n">
-        <v>51.86913787615282</v>
+        <v>51.86913787615276</v>
       </c>
     </row>
     <row r="18">
@@ -2093,7 +2093,7 @@
         <v>72.50724496181067</v>
       </c>
       <c r="G20" t="n">
-        <v>80.43536465312846</v>
+        <v>80.43536465312843</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>48.36504088357975</v>
+        <v>48.36504088357981</v>
       </c>
       <c r="C23" t="n">
-        <v>30.90409099110673</v>
+        <v>30.90409099110678</v>
       </c>
       <c r="D23" t="n">
-        <v>20.31424084078213</v>
+        <v>20.31424084078219</v>
       </c>
       <c r="E23" t="n">
-        <v>47.56156929236096</v>
+        <v>47.56156929236101</v>
       </c>
       <c r="F23" t="n">
-        <v>72.50724496181061</v>
+        <v>72.50724496181067</v>
       </c>
       <c r="G23" t="n">
-        <v>80.43536465312837</v>
+        <v>80.43536465312843</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>14.87216793751219</v>
+        <v>14.87216793751224</v>
       </c>
       <c r="X23" t="n">
-        <v>35.36229989856821</v>
+        <v>35.36229989856827</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.86913787615276</v>
+        <v>51.86913787615282</v>
       </c>
     </row>
     <row r="24">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.3146718132379</v>
+        <v>212.3146718132376</v>
       </c>
       <c r="C26" t="n">
-        <v>194.8537219207649</v>
+        <v>194.8537219207646</v>
       </c>
       <c r="D26" t="n">
-        <v>184.2638717704403</v>
+        <v>184.26387177044</v>
       </c>
       <c r="E26" t="n">
-        <v>211.5112002220191</v>
+        <v>211.5112002220188</v>
       </c>
       <c r="F26" t="n">
-        <v>236.4568758914688</v>
+        <v>236.4568758914685</v>
       </c>
       <c r="G26" t="n">
-        <v>244.3849955827866</v>
+        <v>244.3849955827862</v>
       </c>
       <c r="H26" t="n">
-        <v>163.9496309296582</v>
+        <v>163.9496309296579</v>
       </c>
       <c r="I26" t="n">
-        <v>20.83551952477845</v>
+        <v>20.83551952477811</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>27.23968841501622</v>
+        <v>27.23968841501587</v>
       </c>
       <c r="T26" t="n">
-        <v>50.49418042447047</v>
+        <v>50.49418042447013</v>
       </c>
       <c r="U26" t="n">
-        <v>80.8865972910254</v>
+        <v>80.88659729102505</v>
       </c>
       <c r="V26" t="n">
-        <v>157.3330886198923</v>
+        <v>157.3330886198919</v>
       </c>
       <c r="W26" t="n">
-        <v>178.8217988671704</v>
+        <v>178.82179886717</v>
       </c>
       <c r="X26" t="n">
-        <v>199.3119308282264</v>
+        <v>199.3119308282261</v>
       </c>
       <c r="Y26" t="n">
-        <v>215.8187688058109</v>
+        <v>215.8187688058106</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.2893291380731</v>
+        <v>2.289329138072759</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>28.6703305315177</v>
+        <v>28.67033053151736</v>
       </c>
       <c r="U27" t="n">
-        <v>55.50466225826654</v>
+        <v>55.5046622582662</v>
       </c>
       <c r="V27" t="n">
-        <v>62.38141729918263</v>
+        <v>62.38141729918229</v>
       </c>
       <c r="W27" t="n">
-        <v>81.27581331067697</v>
+        <v>81.27581331067663</v>
       </c>
       <c r="X27" t="n">
-        <v>35.35381535323484</v>
+        <v>35.35381535323449</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.26352592706172</v>
+        <v>35.26352592706138</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.412810331694658</v>
+        <v>9.412810331694317</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>49.69995331791863</v>
+        <v>49.69995331791829</v>
       </c>
       <c r="T28" t="n">
-        <v>56.57085714280611</v>
+        <v>56.57085714280577</v>
       </c>
       <c r="U28" t="n">
-        <v>115.8876608368623</v>
+        <v>115.887660836862</v>
       </c>
       <c r="V28" t="n">
-        <v>81.71847347358536</v>
+        <v>81.71847347358502</v>
       </c>
       <c r="W28" t="n">
-        <v>116.1038284863484</v>
+        <v>116.103828486348</v>
       </c>
       <c r="X28" t="n">
-        <v>55.29048553879451</v>
+        <v>55.29048553879417</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.16548350185215</v>
+        <v>48.16548350185181</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.3146718132378</v>
+        <v>212.3146718132376</v>
       </c>
       <c r="C29" t="n">
-        <v>194.8537219207648</v>
+        <v>194.8537219207646</v>
       </c>
       <c r="D29" t="n">
-        <v>184.2638717704402</v>
+        <v>184.26387177044</v>
       </c>
       <c r="E29" t="n">
-        <v>211.511200222019</v>
+        <v>211.5112002220188</v>
       </c>
       <c r="F29" t="n">
-        <v>236.4568758914687</v>
+        <v>236.4568758914685</v>
       </c>
       <c r="G29" t="n">
-        <v>244.3849955827864</v>
+        <v>244.3849955827863</v>
       </c>
       <c r="H29" t="n">
-        <v>163.9496309296581</v>
+        <v>163.9496309296579</v>
       </c>
       <c r="I29" t="n">
-        <v>20.83551952477831</v>
+        <v>20.83551952477814</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>27.23968841501608</v>
+        <v>27.2396884150159</v>
       </c>
       <c r="T29" t="n">
-        <v>50.49418042447033</v>
+        <v>50.49418042447016</v>
       </c>
       <c r="U29" t="n">
-        <v>80.88659729102525</v>
+        <v>80.88659729102508</v>
       </c>
       <c r="V29" t="n">
-        <v>157.3330886198921</v>
+        <v>157.333088619892</v>
       </c>
       <c r="W29" t="n">
-        <v>178.8217988671702</v>
+        <v>178.8217988671701</v>
       </c>
       <c r="X29" t="n">
-        <v>199.3119308282263</v>
+        <v>199.3119308282261</v>
       </c>
       <c r="Y29" t="n">
-        <v>215.8187688058108</v>
+        <v>215.8187688058106</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.289329138072958</v>
+        <v>2.289329138072787</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>28.67033053151756</v>
+        <v>28.67033053151739</v>
       </c>
       <c r="U30" t="n">
-        <v>55.5046622582664</v>
+        <v>55.50466225826623</v>
       </c>
       <c r="V30" t="n">
-        <v>62.38141729918249</v>
+        <v>62.38141729918232</v>
       </c>
       <c r="W30" t="n">
-        <v>81.27581331067682</v>
+        <v>81.27581331067665</v>
       </c>
       <c r="X30" t="n">
-        <v>35.35381535323469</v>
+        <v>35.35381535323452</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.26352592706158</v>
+        <v>35.26352592706141</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.412810331694516</v>
+        <v>9.412810331694345</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>49.69995331791849</v>
+        <v>49.69995331791831</v>
       </c>
       <c r="T31" t="n">
-        <v>56.57085714280597</v>
+        <v>56.5708571428058</v>
       </c>
       <c r="U31" t="n">
-        <v>115.8876608368622</v>
+        <v>115.887660836862</v>
       </c>
       <c r="V31" t="n">
-        <v>81.71847347358522</v>
+        <v>81.71847347358505</v>
       </c>
       <c r="W31" t="n">
-        <v>116.1038284863482</v>
+        <v>116.103828486348</v>
       </c>
       <c r="X31" t="n">
-        <v>55.29048553879437</v>
+        <v>55.2904855387942</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.16548350185201</v>
+        <v>48.16548350185184</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.3146718132378</v>
+        <v>212.3146718132377</v>
       </c>
       <c r="C32" t="n">
-        <v>194.8537219207648</v>
+        <v>194.8537219207646</v>
       </c>
       <c r="D32" t="n">
-        <v>184.2638717704402</v>
+        <v>184.26387177044</v>
       </c>
       <c r="E32" t="n">
-        <v>211.511200222019</v>
+        <v>211.5112002220189</v>
       </c>
       <c r="F32" t="n">
-        <v>236.4568758914687</v>
+        <v>236.4568758914685</v>
       </c>
       <c r="G32" t="n">
-        <v>244.3849955827864</v>
+        <v>244.3849955827863</v>
       </c>
       <c r="H32" t="n">
-        <v>163.9496309296581</v>
+        <v>163.949630929658</v>
       </c>
       <c r="I32" t="n">
-        <v>20.83551952477831</v>
+        <v>20.83551952477816</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>27.23968841501608</v>
+        <v>27.23968841501593</v>
       </c>
       <c r="T32" t="n">
-        <v>50.49418042447033</v>
+        <v>50.49418042447019</v>
       </c>
       <c r="U32" t="n">
-        <v>80.88659729102525</v>
+        <v>80.88659729102511</v>
       </c>
       <c r="V32" t="n">
-        <v>157.3330886198921</v>
+        <v>157.333088619892</v>
       </c>
       <c r="W32" t="n">
-        <v>178.8217988671702</v>
+        <v>178.8217988671701</v>
       </c>
       <c r="X32" t="n">
-        <v>199.3119308282263</v>
+        <v>199.3119308282261</v>
       </c>
       <c r="Y32" t="n">
-        <v>215.8187688058108</v>
+        <v>215.8187688058107</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2.289329138072958</v>
+        <v>2.289329138072816</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>28.67033053151756</v>
+        <v>28.67033053151741</v>
       </c>
       <c r="U33" t="n">
-        <v>55.5046622582664</v>
+        <v>55.50466225826626</v>
       </c>
       <c r="V33" t="n">
-        <v>62.38141729918249</v>
+        <v>62.38141729918235</v>
       </c>
       <c r="W33" t="n">
-        <v>81.27581331067682</v>
+        <v>81.27581331067668</v>
       </c>
       <c r="X33" t="n">
-        <v>35.35381535323469</v>
+        <v>35.35381535323455</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.26352592706158</v>
+        <v>35.26352592706144</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.412810331694516</v>
+        <v>9.412810331694374</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>49.69995331791849</v>
+        <v>49.69995331791834</v>
       </c>
       <c r="T34" t="n">
-        <v>56.57085714280597</v>
+        <v>56.57085714280583</v>
       </c>
       <c r="U34" t="n">
-        <v>115.8876608368622</v>
+        <v>115.887660836862</v>
       </c>
       <c r="V34" t="n">
-        <v>81.71847347358522</v>
+        <v>81.71847347358508</v>
       </c>
       <c r="W34" t="n">
-        <v>116.1038284863482</v>
+        <v>116.1038284863481</v>
       </c>
       <c r="X34" t="n">
-        <v>55.29048553879437</v>
+        <v>55.29048553879423</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.16548350185201</v>
+        <v>48.16548350185187</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>185.0749833982217</v>
+        <v>185.0749833982216</v>
       </c>
       <c r="C35" t="n">
-        <v>167.6140335057487</v>
+        <v>167.6140335057486</v>
       </c>
       <c r="D35" t="n">
-        <v>157.0241833554241</v>
+        <v>157.024183355424</v>
       </c>
       <c r="E35" t="n">
-        <v>184.2715118070029</v>
+        <v>184.2715118070028</v>
       </c>
       <c r="F35" t="n">
-        <v>209.2171874764526</v>
+        <v>209.2171874764525</v>
       </c>
       <c r="G35" t="n">
-        <v>217.1453071677704</v>
+        <v>217.1453071677703</v>
       </c>
       <c r="H35" t="n">
-        <v>136.709942514642</v>
+        <v>136.7099425146419</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>23.25449200945425</v>
+        <v>23.25449200945417</v>
       </c>
       <c r="U35" t="n">
-        <v>53.64690887600917</v>
+        <v>53.64690887600909</v>
       </c>
       <c r="V35" t="n">
         <v>130.093400204876</v>
       </c>
       <c r="W35" t="n">
-        <v>151.5821104521542</v>
+        <v>151.5821104521541</v>
       </c>
       <c r="X35" t="n">
-        <v>172.0722424132102</v>
+        <v>172.0722424132101</v>
       </c>
       <c r="Y35" t="n">
-        <v>188.5790803907947</v>
+        <v>188.5790803907946</v>
       </c>
     </row>
     <row r="36">
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.430642116501482</v>
+        <v>1.430642116501396</v>
       </c>
       <c r="U36" t="n">
-        <v>28.26497384325033</v>
+        <v>28.26497384325024</v>
       </c>
       <c r="V36" t="n">
-        <v>35.14172888416641</v>
+        <v>35.14172888416633</v>
       </c>
       <c r="W36" t="n">
-        <v>54.03612489566075</v>
+        <v>54.03612489566066</v>
       </c>
       <c r="X36" t="n">
-        <v>8.114126938218618</v>
+        <v>8.114126938218533</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.023837512045503</v>
+        <v>8.023837512045418</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>22.46026490290241</v>
+        <v>22.46026490290232</v>
       </c>
       <c r="T37" t="n">
-        <v>29.33116872778989</v>
+        <v>29.33116872778981</v>
       </c>
       <c r="U37" t="n">
-        <v>88.64797242184608</v>
+        <v>88.64797242184599</v>
       </c>
       <c r="V37" t="n">
-        <v>54.47878505856914</v>
+        <v>54.47878505856906</v>
       </c>
       <c r="W37" t="n">
-        <v>88.86414007133214</v>
+        <v>88.86414007133206</v>
       </c>
       <c r="X37" t="n">
-        <v>28.0507971237783</v>
+        <v>28.05079712377821</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.92579508683593</v>
+        <v>20.92579508683585</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>185.0749833982218</v>
+        <v>185.0749833982216</v>
       </c>
       <c r="C38" t="n">
-        <v>167.6140335057488</v>
+        <v>167.6140335057486</v>
       </c>
       <c r="D38" t="n">
-        <v>157.0241833554242</v>
+        <v>157.024183355424</v>
       </c>
       <c r="E38" t="n">
-        <v>184.271511807003</v>
+        <v>184.2715118070028</v>
       </c>
       <c r="F38" t="n">
-        <v>209.2171874764526</v>
+        <v>209.2171874764525</v>
       </c>
       <c r="G38" t="n">
-        <v>217.1453071677704</v>
+        <v>217.1453071677702</v>
       </c>
       <c r="H38" t="n">
-        <v>136.7099425146421</v>
+        <v>136.7099425146419</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>23.25449200945431</v>
+        <v>23.25449200945414</v>
       </c>
       <c r="U38" t="n">
-        <v>53.64690887600923</v>
+        <v>53.64690887600906</v>
       </c>
       <c r="V38" t="n">
-        <v>130.0934002048761</v>
+        <v>130.0934002048759</v>
       </c>
       <c r="W38" t="n">
-        <v>151.5821104521542</v>
+        <v>151.582110452154</v>
       </c>
       <c r="X38" t="n">
-        <v>172.0722424132102</v>
+        <v>172.0722424132101</v>
       </c>
       <c r="Y38" t="n">
-        <v>188.5790803907948</v>
+        <v>188.5790803907946</v>
       </c>
     </row>
     <row r="39">
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.430642116501539</v>
+        <v>1.430642116501368</v>
       </c>
       <c r="U39" t="n">
-        <v>28.26497384325038</v>
+        <v>28.26497384325021</v>
       </c>
       <c r="V39" t="n">
-        <v>35.14172888416647</v>
+        <v>35.1417288841663</v>
       </c>
       <c r="W39" t="n">
-        <v>54.03612489566081</v>
+        <v>54.03612489566063</v>
       </c>
       <c r="X39" t="n">
-        <v>8.114126938218675</v>
+        <v>8.114126938218504</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.02383751204556</v>
+        <v>8.02383751204539</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>22.46026490290246</v>
+        <v>22.46026490290229</v>
       </c>
       <c r="T40" t="n">
-        <v>29.33116872778995</v>
+        <v>29.33116872778978</v>
       </c>
       <c r="U40" t="n">
-        <v>88.64797242184613</v>
+        <v>88.64797242184596</v>
       </c>
       <c r="V40" t="n">
-        <v>54.4787850585692</v>
+        <v>54.47878505856903</v>
       </c>
       <c r="W40" t="n">
-        <v>88.8641400713322</v>
+        <v>88.86414007133203</v>
       </c>
       <c r="X40" t="n">
-        <v>28.05079712377835</v>
+        <v>28.05079712377818</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.92579508683599</v>
+        <v>20.92579508683582</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.0749833982217</v>
+        <v>185.0749833982216</v>
       </c>
       <c r="C41" t="n">
-        <v>167.6140335057487</v>
+        <v>167.6140335057486</v>
       </c>
       <c r="D41" t="n">
-        <v>157.0241833554241</v>
+        <v>157.024183355424</v>
       </c>
       <c r="E41" t="n">
-        <v>184.271511807003</v>
+        <v>184.2715118070028</v>
       </c>
       <c r="F41" t="n">
-        <v>209.2171874764526</v>
+        <v>209.2171874764525</v>
       </c>
       <c r="G41" t="n">
-        <v>217.1453071677704</v>
+        <v>217.1453071677703</v>
       </c>
       <c r="H41" t="n">
-        <v>136.7099425146421</v>
+        <v>136.7099425146419</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>23.25449200945428</v>
+        <v>23.25449200945416</v>
       </c>
       <c r="U41" t="n">
-        <v>53.64690887600921</v>
+        <v>53.64690887600909</v>
       </c>
       <c r="V41" t="n">
-        <v>130.0934002048761</v>
+        <v>130.093400204876</v>
       </c>
       <c r="W41" t="n">
-        <v>151.5821104521542</v>
+        <v>151.5821104521541</v>
       </c>
       <c r="X41" t="n">
-        <v>172.0722424132102</v>
+        <v>172.0722424132101</v>
       </c>
       <c r="Y41" t="n">
-        <v>188.5790803907948</v>
+        <v>188.5790803907946</v>
       </c>
     </row>
     <row r="42">
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.43064211650151</v>
+        <v>1.430642116501396</v>
       </c>
       <c r="U42" t="n">
-        <v>28.26497384325036</v>
+        <v>28.26497384325024</v>
       </c>
       <c r="V42" t="n">
-        <v>35.14172888416644</v>
+        <v>35.14172888416633</v>
       </c>
       <c r="W42" t="n">
-        <v>54.03612489566078</v>
+        <v>54.03612489566066</v>
       </c>
       <c r="X42" t="n">
-        <v>8.114126938218647</v>
+        <v>8.114126938218533</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.023837512045532</v>
+        <v>8.023837512045418</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>22.46026490290243</v>
+        <v>22.46026490290232</v>
       </c>
       <c r="T43" t="n">
-        <v>29.33116872778992</v>
+        <v>29.33116872778981</v>
       </c>
       <c r="U43" t="n">
-        <v>88.64797242184611</v>
+        <v>88.64797242184599</v>
       </c>
       <c r="V43" t="n">
-        <v>54.47878505856917</v>
+        <v>54.47878505856906</v>
       </c>
       <c r="W43" t="n">
-        <v>88.86414007133217</v>
+        <v>88.86414007133206</v>
       </c>
       <c r="X43" t="n">
-        <v>28.05079712377832</v>
+        <v>28.05079712377821</v>
       </c>
       <c r="Y43" t="n">
-        <v>20.92579508683596</v>
+        <v>20.92579508683585</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>185.0749833982219</v>
+        <v>185.0749833982217</v>
       </c>
       <c r="C44" t="n">
-        <v>167.6140335057489</v>
+        <v>167.6140335057487</v>
       </c>
       <c r="D44" t="n">
-        <v>157.0241833554243</v>
+        <v>157.0241833554241</v>
       </c>
       <c r="E44" t="n">
-        <v>184.2715118070031</v>
+        <v>184.2715118070029</v>
       </c>
       <c r="F44" t="n">
-        <v>209.2171874764528</v>
+        <v>209.2171874764526</v>
       </c>
       <c r="G44" t="n">
-        <v>217.1453071677705</v>
+        <v>217.1453071677704</v>
       </c>
       <c r="H44" t="n">
-        <v>136.7099425146422</v>
+        <v>136.709942514642</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>23.25449200945442</v>
+        <v>23.25449200945425</v>
       </c>
       <c r="U44" t="n">
-        <v>53.64690887600934</v>
+        <v>53.64690887600917</v>
       </c>
       <c r="V44" t="n">
-        <v>130.0934002048762</v>
+        <v>130.093400204876</v>
       </c>
       <c r="W44" t="n">
-        <v>151.5821104521543</v>
+        <v>151.5821104521542</v>
       </c>
       <c r="X44" t="n">
-        <v>172.0722424132103</v>
+        <v>172.0722424132102</v>
       </c>
       <c r="Y44" t="n">
-        <v>188.5790803907949</v>
+        <v>188.5790803907947</v>
       </c>
     </row>
     <row r="45">
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.430642116501652</v>
+        <v>1.430642116501482</v>
       </c>
       <c r="U45" t="n">
-        <v>28.2649738432505</v>
+        <v>28.26497384325033</v>
       </c>
       <c r="V45" t="n">
-        <v>35.14172888416658</v>
+        <v>35.14172888416641</v>
       </c>
       <c r="W45" t="n">
-        <v>54.03612489566092</v>
+        <v>54.03612489566075</v>
       </c>
       <c r="X45" t="n">
-        <v>8.114126938218789</v>
+        <v>8.114126938218618</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.023837512045674</v>
+        <v>8.023837512045503</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>22.46026490290258</v>
+        <v>22.46026490290241</v>
       </c>
       <c r="T46" t="n">
-        <v>29.33116872779006</v>
+        <v>29.33116872778989</v>
       </c>
       <c r="U46" t="n">
-        <v>88.64797242184625</v>
+        <v>88.64797242184608</v>
       </c>
       <c r="V46" t="n">
-        <v>54.47878505856931</v>
+        <v>54.47878505856914</v>
       </c>
       <c r="W46" t="n">
-        <v>88.86414007133232</v>
+        <v>88.86414007133214</v>
       </c>
       <c r="X46" t="n">
-        <v>28.05079712377847</v>
+        <v>28.0507971237783</v>
       </c>
       <c r="Y46" t="n">
-        <v>20.9257950868361</v>
+        <v>20.92579508683593</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7950093199957</v>
+        <v>188.811444034259</v>
       </c>
       <c r="C11" t="n">
-        <v>158.1120330579425</v>
+        <v>188.811444034259</v>
       </c>
       <c r="D11" t="n">
-        <v>158.1120330579425</v>
+        <v>112.9738679820088</v>
       </c>
       <c r="E11" t="n">
-        <v>158.1120330579425</v>
+        <v>112.9738679820088</v>
       </c>
       <c r="F11" t="n">
-        <v>53.42905679588819</v>
+        <v>112.9738679820088</v>
       </c>
       <c r="G11" t="n">
-        <v>53.42905679588819</v>
+        <v>112.9738679820088</v>
       </c>
       <c r="H11" t="n">
-        <v>8.290891719954704</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="I11" t="n">
-        <v>21.61148364112616</v>
+        <v>21.61148364112611</v>
       </c>
       <c r="J11" t="n">
-        <v>86.93129799324205</v>
+        <v>86.93129799324198</v>
       </c>
       <c r="K11" t="n">
-        <v>86.93129799324205</v>
+        <v>86.93129799324198</v>
       </c>
       <c r="L11" t="n">
-        <v>189.5310830276815</v>
+        <v>134.0769112838428</v>
       </c>
       <c r="M11" t="n">
-        <v>189.5310830276815</v>
+        <v>174.9463799952741</v>
       </c>
       <c r="N11" t="n">
-        <v>253.146732879443</v>
+        <v>174.9463799952741</v>
       </c>
       <c r="O11" t="n">
-        <v>284.7260400099539</v>
+        <v>174.9463799952741</v>
       </c>
       <c r="P11" t="n">
-        <v>284.7260400099539</v>
+        <v>219.6667843357007</v>
       </c>
       <c r="Q11" t="n">
-        <v>387.3258250443934</v>
+        <v>322.2665693701399</v>
       </c>
       <c r="R11" t="n">
-        <v>407.5641212778991</v>
+        <v>407.5641212778983</v>
       </c>
       <c r="S11" t="n">
-        <v>414.5445859977352</v>
+        <v>414.5445859977343</v>
       </c>
       <c r="T11" t="n">
-        <v>414.5445859977352</v>
+        <v>398.1773965583673</v>
       </c>
       <c r="U11" t="n">
-        <v>367.4779855820501</v>
+        <v>398.1773965583673</v>
       </c>
       <c r="V11" t="n">
-        <v>367.4779855820501</v>
+        <v>293.4944202963131</v>
       </c>
       <c r="W11" t="n">
-        <v>367.4779855820501</v>
+        <v>188.811444034259</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7950093199957</v>
+        <v>188.811444034259</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7950093199957</v>
+        <v>188.811444034259</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.290891719954704</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="C12" t="n">
-        <v>8.290891719954704</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="D12" t="n">
-        <v>8.290891719954704</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="E12" t="n">
-        <v>8.290891719954704</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="F12" t="n">
-        <v>8.290891719954704</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="G12" t="n">
-        <v>32.7731080266159</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="H12" t="n">
-        <v>32.7731080266159</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="I12" t="n">
-        <v>32.7731080266159</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="J12" t="n">
-        <v>32.7731080266159</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="K12" t="n">
-        <v>32.7731080266159</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="L12" t="n">
-        <v>32.7731080266159</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="M12" t="n">
-        <v>32.7731080266159</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="N12" t="n">
-        <v>32.7731080266159</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="O12" t="n">
-        <v>32.7731080266159</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="P12" t="n">
-        <v>32.7731080266159</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.7731080266159</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="R12" t="n">
-        <v>107.6100025794873</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="S12" t="n">
-        <v>107.6100025794873</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="T12" t="n">
-        <v>107.6100025794873</v>
+        <v>107.6100025794874</v>
       </c>
       <c r="U12" t="n">
-        <v>86.18172037871005</v>
+        <v>86.18172037871014</v>
       </c>
       <c r="V12" t="n">
-        <v>57.80722096488628</v>
+        <v>57.80722096488634</v>
       </c>
       <c r="W12" t="n">
-        <v>10.34747305460357</v>
+        <v>10.34747305460361</v>
       </c>
       <c r="X12" t="n">
-        <v>9.273581666989683</v>
+        <v>9.273581666989696</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.290891719954704</v>
+        <v>8.290891719954686</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.290891719954704</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="C13" t="n">
-        <v>8.290891719954704</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="D13" t="n">
-        <v>63.82430783436681</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="E13" t="n">
-        <v>121.5174192167057</v>
+        <v>11.98946739691598</v>
       </c>
       <c r="F13" t="n">
-        <v>148.4853921173778</v>
+        <v>11.98946739691598</v>
       </c>
       <c r="G13" t="n">
-        <v>148.4853921173778</v>
+        <v>11.98946739691598</v>
       </c>
       <c r="H13" t="n">
-        <v>192.5117250162657</v>
+        <v>11.98946739691598</v>
       </c>
       <c r="I13" t="n">
-        <v>192.5117250162657</v>
+        <v>11.98946739691598</v>
       </c>
       <c r="J13" t="n">
-        <v>192.5117250162657</v>
+        <v>104.580128123754</v>
       </c>
       <c r="K13" t="n">
-        <v>192.5117250162657</v>
+        <v>104.580128123754</v>
       </c>
       <c r="L13" t="n">
-        <v>294.5556413580232</v>
+        <v>104.580128123754</v>
       </c>
       <c r="M13" t="n">
-        <v>294.5556413580232</v>
+        <v>104.580128123754</v>
       </c>
       <c r="N13" t="n">
-        <v>294.5556413580232</v>
+        <v>104.580128123754</v>
       </c>
       <c r="O13" t="n">
-        <v>294.5556413580232</v>
+        <v>201.4655998749755</v>
       </c>
       <c r="P13" t="n">
-        <v>294.5556413580232</v>
+        <v>294.5556413580234</v>
       </c>
       <c r="Q13" t="n">
-        <v>294.5556413580232</v>
+        <v>294.5556413580234</v>
       </c>
       <c r="R13" t="n">
-        <v>294.5556413580232</v>
+        <v>294.5556413580234</v>
       </c>
       <c r="S13" t="n">
-        <v>278.9907015212337</v>
+        <v>278.990701521234</v>
       </c>
       <c r="T13" t="n">
-        <v>256.4854547906186</v>
+        <v>256.4854547906187</v>
       </c>
       <c r="U13" t="n">
-        <v>174.0642447326739</v>
+        <v>174.064244732674</v>
       </c>
       <c r="V13" t="n">
-        <v>126.157365344706</v>
+        <v>126.1573653447061</v>
       </c>
       <c r="W13" t="n">
-        <v>43.51780412566428</v>
+        <v>43.51780412566433</v>
       </c>
       <c r="X13" t="n">
-        <v>22.30586204556587</v>
+        <v>22.30586204556589</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.290891719954704</v>
+        <v>8.290891719954686</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.290891719954686</v>
+        <v>217.6568442440629</v>
       </c>
       <c r="C14" t="n">
-        <v>8.290891719954686</v>
+        <v>112.9738679820088</v>
       </c>
       <c r="D14" t="n">
         <v>8.290891719954686</v>
@@ -5273,34 +5273,34 @@
         <v>8.290891719954686</v>
       </c>
       <c r="I14" t="n">
-        <v>21.61148364112614</v>
+        <v>21.6114836411262</v>
       </c>
       <c r="J14" t="n">
-        <v>51.67421261115273</v>
+        <v>86.93129799324215</v>
       </c>
       <c r="K14" t="n">
-        <v>99.23403058334148</v>
+        <v>86.93129799324215</v>
       </c>
       <c r="L14" t="n">
-        <v>99.23403058334148</v>
+        <v>134.076911283843</v>
       </c>
       <c r="M14" t="n">
-        <v>160.5234402517276</v>
+        <v>228.3554396463207</v>
       </c>
       <c r="N14" t="n">
-        <v>224.1390901034891</v>
+        <v>228.3554396463207</v>
       </c>
       <c r="O14" t="n">
-        <v>282.1683442283803</v>
+        <v>286.384693771212</v>
       </c>
       <c r="P14" t="n">
-        <v>282.1683442283803</v>
+        <v>286.384693771212</v>
       </c>
       <c r="Q14" t="n">
-        <v>384.7681292628196</v>
+        <v>322.2665693701398</v>
       </c>
       <c r="R14" t="n">
-        <v>407.5641212778983</v>
+        <v>407.5641212778982</v>
       </c>
       <c r="S14" t="n">
         <v>414.5445859977343</v>
@@ -5309,19 +5309,19 @@
         <v>398.1773965583673</v>
       </c>
       <c r="U14" t="n">
-        <v>351.110796142682</v>
+        <v>398.1773965583673</v>
       </c>
       <c r="V14" t="n">
-        <v>246.4278198806279</v>
+        <v>293.4944202963132</v>
       </c>
       <c r="W14" t="n">
-        <v>141.7448436185738</v>
+        <v>293.4944202963132</v>
       </c>
       <c r="X14" t="n">
-        <v>37.06186735651966</v>
+        <v>293.4944202963132</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.06186735651966</v>
+        <v>217.6568442440629</v>
       </c>
     </row>
     <row r="15">
@@ -5376,28 +5376,28 @@
         <v>8.290891719954686</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.290891719954686</v>
+        <v>70.00821476597426</v>
       </c>
       <c r="R15" t="n">
-        <v>70.0082147659746</v>
+        <v>70.00821476597426</v>
       </c>
       <c r="S15" t="n">
-        <v>107.6100025794873</v>
+        <v>107.610002579487</v>
       </c>
       <c r="T15" t="n">
-        <v>107.6100025794873</v>
+        <v>107.610002579487</v>
       </c>
       <c r="U15" t="n">
-        <v>86.18172037871003</v>
+        <v>86.1817203787098</v>
       </c>
       <c r="V15" t="n">
-        <v>57.80722096488626</v>
+        <v>57.80722096488608</v>
       </c>
       <c r="W15" t="n">
-        <v>10.34747305460355</v>
+        <v>10.34747305460343</v>
       </c>
       <c r="X15" t="n">
-        <v>9.273581666989665</v>
+        <v>9.273581666989609</v>
       </c>
       <c r="Y15" t="n">
         <v>8.290891719954686</v>
@@ -5413,70 +5413,70 @@
         <v>8.290891719954686</v>
       </c>
       <c r="C16" t="n">
-        <v>8.290891719954686</v>
+        <v>45.37927323475552</v>
       </c>
       <c r="D16" t="n">
-        <v>8.290891719954686</v>
+        <v>45.37927323475552</v>
       </c>
       <c r="E16" t="n">
-        <v>8.290891719954686</v>
+        <v>82.43133320581477</v>
       </c>
       <c r="F16" t="n">
-        <v>8.290891719954686</v>
+        <v>82.43133320581477</v>
       </c>
       <c r="G16" t="n">
-        <v>8.290891719954686</v>
+        <v>82.43133320581477</v>
       </c>
       <c r="H16" t="n">
-        <v>8.290891719954686</v>
+        <v>126.4576661047027</v>
       </c>
       <c r="I16" t="n">
-        <v>8.290891719954686</v>
+        <v>126.4576661047027</v>
       </c>
       <c r="J16" t="n">
-        <v>100.8815524467927</v>
+        <v>126.4576661047027</v>
       </c>
       <c r="K16" t="n">
-        <v>201.5444953945575</v>
+        <v>126.4576661047027</v>
       </c>
       <c r="L16" t="n">
-        <v>201.5444953945575</v>
+        <v>126.4576661047027</v>
       </c>
       <c r="M16" t="n">
-        <v>201.5444953945575</v>
+        <v>126.4576661047027</v>
       </c>
       <c r="N16" t="n">
-        <v>294.5556413580232</v>
+        <v>126.4576661047027</v>
       </c>
       <c r="O16" t="n">
-        <v>294.5556413580232</v>
+        <v>223.3431378559243</v>
       </c>
       <c r="P16" t="n">
-        <v>294.5556413580232</v>
+        <v>223.3431378559243</v>
       </c>
       <c r="Q16" t="n">
-        <v>294.5556413580232</v>
+        <v>294.5556413580228</v>
       </c>
       <c r="R16" t="n">
-        <v>294.5556413580232</v>
+        <v>294.5556413580228</v>
       </c>
       <c r="S16" t="n">
-        <v>278.9907015212337</v>
+        <v>278.9907015212334</v>
       </c>
       <c r="T16" t="n">
-        <v>256.4854547906186</v>
+        <v>256.4854547906183</v>
       </c>
       <c r="U16" t="n">
-        <v>174.0642447326739</v>
+        <v>174.0642447326737</v>
       </c>
       <c r="V16" t="n">
-        <v>126.157365344706</v>
+        <v>126.1573653447058</v>
       </c>
       <c r="W16" t="n">
-        <v>43.51780412566427</v>
+        <v>43.51780412566416</v>
       </c>
       <c r="X16" t="n">
-        <v>22.30586204556586</v>
+        <v>22.3058620455658</v>
       </c>
       <c r="Y16" t="n">
         <v>8.290891719954686</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.5560540827719</v>
+        <v>262.556054082772</v>
       </c>
       <c r="C17" t="n">
         <v>231.3398005564015</v>
       </c>
       <c r="D17" t="n">
-        <v>210.8203653636922</v>
+        <v>210.8203653636923</v>
       </c>
       <c r="E17" t="n">
-        <v>162.7783761794892</v>
+        <v>162.7783761794893</v>
       </c>
       <c r="F17" t="n">
-        <v>89.53873480392286</v>
+        <v>89.53873480392278</v>
       </c>
       <c r="G17" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="H17" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="I17" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="J17" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="K17" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="L17" t="n">
         <v>110.8906767543939</v>
@@ -5528,7 +5528,7 @@
         <v>110.8906767543939</v>
       </c>
       <c r="O17" t="n">
-        <v>110.8906767543939</v>
+        <v>213.4904617888332</v>
       </c>
       <c r="P17" t="n">
         <v>213.4904617888332</v>
@@ -5537,28 +5537,28 @@
         <v>213.4904617888332</v>
       </c>
       <c r="R17" t="n">
-        <v>316.0902468232724</v>
+        <v>311.9448009632951</v>
       </c>
       <c r="S17" t="n">
-        <v>316.0902468232724</v>
+        <v>414.5445859977344</v>
       </c>
       <c r="T17" t="n">
-        <v>332.3121826954879</v>
+        <v>414.5445859977344</v>
       </c>
       <c r="U17" t="n">
-        <v>414.5445859977343</v>
+        <v>414.5445859977344</v>
       </c>
       <c r="V17" t="n">
-        <v>414.5445859977343</v>
+        <v>414.5445859977344</v>
       </c>
       <c r="W17" t="n">
-        <v>399.5221941416617</v>
+        <v>399.5221941416615</v>
       </c>
       <c r="X17" t="n">
-        <v>363.802699294623</v>
+        <v>363.8026992946229</v>
       </c>
       <c r="Y17" t="n">
-        <v>311.4096307328525</v>
+        <v>311.4096307328524</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="C18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="D18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="E18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="F18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="G18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="H18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="I18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="J18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="K18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="L18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="M18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="N18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="O18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="P18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="R18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="S18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="T18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="U18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="V18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="W18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="X18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="C19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="D19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="E19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="F19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="G19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="H19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="I19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="J19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="K19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="L19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="M19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="N19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="O19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="P19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="R19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="S19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="T19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="U19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="V19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="W19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="X19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.5560540827718</v>
+        <v>262.5560540827719</v>
       </c>
       <c r="C20" t="n">
-        <v>231.3398005564014</v>
+        <v>231.3398005564013</v>
       </c>
       <c r="D20" t="n">
-        <v>210.8203653636921</v>
+        <v>210.8203653636922</v>
       </c>
       <c r="E20" t="n">
-        <v>162.7783761794891</v>
+        <v>162.7783761794894</v>
       </c>
       <c r="F20" t="n">
-        <v>89.53873480392275</v>
+        <v>89.53873480392309</v>
       </c>
       <c r="G20" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="H20" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="I20" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="J20" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="K20" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="L20" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="M20" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="N20" t="n">
-        <v>8.290891719954686</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="O20" t="n">
-        <v>8.290891719954686</v>
+        <v>213.4904617888332</v>
       </c>
       <c r="P20" t="n">
-        <v>8.290891719954686</v>
+        <v>316.0902468232724</v>
       </c>
       <c r="Q20" t="n">
-        <v>24.51282759217023</v>
+        <v>316.0902468232724</v>
       </c>
       <c r="R20" t="n">
-        <v>127.1126126266095</v>
+        <v>414.5445859977344</v>
       </c>
       <c r="S20" t="n">
-        <v>229.7123976610487</v>
+        <v>414.5445859977344</v>
       </c>
       <c r="T20" t="n">
-        <v>332.3121826954879</v>
+        <v>414.5445859977344</v>
       </c>
       <c r="U20" t="n">
-        <v>414.5445859977343</v>
+        <v>414.5445859977344</v>
       </c>
       <c r="V20" t="n">
-        <v>414.5445859977343</v>
+        <v>414.5445859977344</v>
       </c>
       <c r="W20" t="n">
-        <v>399.5221941416615</v>
+        <v>399.5221941416614</v>
       </c>
       <c r="X20" t="n">
         <v>363.8026992946229</v>
       </c>
       <c r="Y20" t="n">
-        <v>311.4096307328524</v>
+        <v>311.4096307328525</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="C21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="D21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="E21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="F21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="G21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="H21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="I21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="J21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="K21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="L21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="M21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="N21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="O21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="P21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="R21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="S21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="T21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="U21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="V21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="W21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="X21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="C22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="D22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="E22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="F22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="G22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="H22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="I22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="J22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="K22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="L22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="M22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="N22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="O22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="P22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="R22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="S22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="T22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="U22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="V22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="W22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="X22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.290891719954686</v>
+        <v>8.290891719954688</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.556054082772</v>
+        <v>262.5560540827721</v>
       </c>
       <c r="C23" t="n">
-        <v>231.3398005564015</v>
+        <v>231.3398005564018</v>
       </c>
       <c r="D23" t="n">
-        <v>210.8203653636923</v>
+        <v>210.8203653636925</v>
       </c>
       <c r="E23" t="n">
-        <v>162.7783761794893</v>
+        <v>162.7783761794894</v>
       </c>
       <c r="F23" t="n">
-        <v>89.53873480392275</v>
+        <v>89.53873480392303</v>
       </c>
       <c r="G23" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="H23" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="I23" t="n">
-        <v>8.290891719954688</v>
+        <v>17.96245070550216</v>
       </c>
       <c r="J23" t="n">
-        <v>8.290891719954688</v>
+        <v>17.96245070550216</v>
       </c>
       <c r="K23" t="n">
-        <v>8.290891719954688</v>
+        <v>120.5622357399415</v>
       </c>
       <c r="L23" t="n">
-        <v>8.290891719954688</v>
+        <v>120.5622357399415</v>
       </c>
       <c r="M23" t="n">
-        <v>110.8906767543939</v>
+        <v>120.5622357399415</v>
       </c>
       <c r="N23" t="n">
-        <v>127.1126126266094</v>
+        <v>120.5622357399415</v>
       </c>
       <c r="O23" t="n">
-        <v>127.1126126266094</v>
+        <v>223.1620207743809</v>
       </c>
       <c r="P23" t="n">
-        <v>127.1126126266094</v>
+        <v>325.7618058088203</v>
       </c>
       <c r="Q23" t="n">
-        <v>127.1126126266094</v>
+        <v>325.7618058088203</v>
       </c>
       <c r="R23" t="n">
-        <v>229.7123976610487</v>
+        <v>325.7618058088203</v>
       </c>
       <c r="S23" t="n">
-        <v>332.3121826954879</v>
+        <v>325.7618058088203</v>
       </c>
       <c r="T23" t="n">
-        <v>332.3121826954879</v>
+        <v>325.7618058088203</v>
       </c>
       <c r="U23" t="n">
-        <v>414.5445859977344</v>
+        <v>407.9942091110667</v>
       </c>
       <c r="V23" t="n">
-        <v>414.5445859977344</v>
+        <v>414.5445859977348</v>
       </c>
       <c r="W23" t="n">
-        <v>399.5221941416615</v>
+        <v>399.5221941416619</v>
       </c>
       <c r="X23" t="n">
-        <v>363.8026992946229</v>
+        <v>363.8026992946232</v>
       </c>
       <c r="Y23" t="n">
-        <v>311.4096307328524</v>
+        <v>311.4096307328527</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="C24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="D24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="E24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="F24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="G24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="H24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="I24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="J24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="K24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="L24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="M24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="N24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="O24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="P24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="R24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="S24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="T24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="U24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="V24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="W24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="X24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="C25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="D25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="E25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="F25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="G25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="H25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="I25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="J25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="K25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="L25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="M25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="N25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="O25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="P25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="R25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="S25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="T25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="U25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="V25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="W25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="X25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954697</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1317.97591253681</v>
+        <v>1317.975912536809</v>
       </c>
       <c r="C26" t="n">
-        <v>1121.153971202704</v>
+        <v>1121.153971202703</v>
       </c>
       <c r="D26" t="n">
-        <v>935.0288482022595</v>
+        <v>935.0288482022588</v>
       </c>
       <c r="E26" t="n">
-        <v>721.381171210321</v>
+        <v>721.3811712103206</v>
       </c>
       <c r="F26" t="n">
-        <v>482.5358420270192</v>
+        <v>482.5358420270194</v>
       </c>
       <c r="G26" t="n">
-        <v>235.6823111353156</v>
+        <v>235.6823111353149</v>
       </c>
       <c r="H26" t="n">
-        <v>70.07662332758009</v>
+        <v>70.07662332757965</v>
       </c>
       <c r="I26" t="n">
-        <v>49.03064400962207</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="J26" t="n">
-        <v>247.8083511313889</v>
+        <v>247.8083511313891</v>
       </c>
       <c r="K26" t="n">
-        <v>413.6093931465883</v>
+        <v>428.3287060692858</v>
       </c>
       <c r="L26" t="n">
-        <v>840.2918525914329</v>
+        <v>855.0111655141307</v>
       </c>
       <c r="M26" t="n">
-        <v>1163.703027601533</v>
+        <v>1163.703027601527</v>
       </c>
       <c r="N26" t="n">
-        <v>1626.344376370457</v>
+        <v>1626.344376370451</v>
       </c>
       <c r="O26" t="n">
-        <v>1858.703075543023</v>
+        <v>2027.418053694758</v>
       </c>
       <c r="P26" t="n">
-        <v>2188.056444722516</v>
+        <v>2356.771422874251</v>
       </c>
       <c r="Q26" t="n">
-        <v>2400.182404824047</v>
+        <v>2400.182404824042</v>
       </c>
       <c r="R26" t="n">
-        <v>2451.532200481103</v>
+        <v>2451.532200481099</v>
       </c>
       <c r="S26" t="n">
-        <v>2424.017363698259</v>
+        <v>2424.017363698255</v>
       </c>
       <c r="T26" t="n">
-        <v>2373.013141047278</v>
+        <v>2373.013141047275</v>
       </c>
       <c r="U26" t="n">
-        <v>2291.30950741998</v>
+        <v>2291.309507419977</v>
       </c>
       <c r="V26" t="n">
-        <v>2132.387195682715</v>
+        <v>2132.387195682712</v>
       </c>
       <c r="W26" t="n">
-        <v>1951.759116018907</v>
+        <v>1951.759116018904</v>
       </c>
       <c r="X26" t="n">
-        <v>1750.433933364132</v>
+        <v>1750.433933364131</v>
       </c>
       <c r="Y26" t="n">
-        <v>1532.435176994626</v>
+        <v>1532.435176994625</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.34309768444338</v>
+        <v>51.34309768444295</v>
       </c>
       <c r="C27" t="n">
-        <v>49.03064400962207</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="D27" t="n">
-        <v>49.03064400962207</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="E27" t="n">
-        <v>49.03064400962207</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="F27" t="n">
-        <v>49.03064400962207</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="G27" t="n">
-        <v>49.03064400962207</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="H27" t="n">
-        <v>49.03064400962207</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="I27" t="n">
-        <v>49.03064400962207</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="J27" t="n">
-        <v>49.03064400962207</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="K27" t="n">
-        <v>49.03064400962207</v>
+        <v>217.0332682611012</v>
       </c>
       <c r="L27" t="n">
-        <v>49.03064400962207</v>
+        <v>217.0332682611012</v>
       </c>
       <c r="M27" t="n">
-        <v>266.851713016481</v>
+        <v>217.0332682611012</v>
       </c>
       <c r="N27" t="n">
-        <v>266.851713016481</v>
+        <v>217.0332682611012</v>
       </c>
       <c r="O27" t="n">
-        <v>266.851713016481</v>
+        <v>217.0332682611012</v>
       </c>
       <c r="P27" t="n">
-        <v>266.851713016481</v>
+        <v>352.8073044318555</v>
       </c>
       <c r="Q27" t="n">
-        <v>266.851713016481</v>
+        <v>352.8073044318555</v>
       </c>
       <c r="R27" t="n">
-        <v>352.8073044318579</v>
+        <v>352.8073044318555</v>
       </c>
       <c r="S27" t="n">
-        <v>352.8073044318579</v>
+        <v>352.8073044318555</v>
       </c>
       <c r="T27" t="n">
-        <v>323.847374602042</v>
+        <v>323.84737460204</v>
       </c>
       <c r="U27" t="n">
-        <v>267.7820591896516</v>
+        <v>267.7820591896498</v>
       </c>
       <c r="V27" t="n">
-        <v>204.7705265642146</v>
+        <v>204.7705265642132</v>
       </c>
       <c r="W27" t="n">
-        <v>122.6737454423187</v>
+        <v>122.6737454423176</v>
       </c>
       <c r="X27" t="n">
-        <v>86.96282084309158</v>
+        <v>86.96282084309081</v>
       </c>
       <c r="Y27" t="n">
-        <v>51.34309768444338</v>
+        <v>51.34309768444295</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.03064400962207</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="C28" t="n">
-        <v>49.03064400962207</v>
+        <v>52.17126927372097</v>
       </c>
       <c r="D28" t="n">
-        <v>49.03064400962207</v>
+        <v>52.17126927372097</v>
       </c>
       <c r="E28" t="n">
-        <v>49.03064400962207</v>
+        <v>52.17126927372097</v>
       </c>
       <c r="F28" t="n">
-        <v>49.03064400962207</v>
+        <v>52.17126927372097</v>
       </c>
       <c r="G28" t="n">
-        <v>49.03064400962207</v>
+        <v>52.17126927372097</v>
       </c>
       <c r="H28" t="n">
-        <v>49.03064400962207</v>
+        <v>52.71891435835178</v>
       </c>
       <c r="I28" t="n">
-        <v>70.50792970761574</v>
+        <v>52.71891435835178</v>
       </c>
       <c r="J28" t="n">
-        <v>123.4556762797479</v>
+        <v>52.71891435835178</v>
       </c>
       <c r="K28" t="n">
-        <v>127.1322135062765</v>
+        <v>225.1104297366209</v>
       </c>
       <c r="L28" t="n">
-        <v>187.3633499717305</v>
+        <v>285.3415662020749</v>
       </c>
       <c r="M28" t="n">
-        <v>261.2577614405718</v>
+        <v>285.3415662020749</v>
       </c>
       <c r="N28" t="n">
-        <v>338.8297453886677</v>
+        <v>531.6285283019114</v>
       </c>
       <c r="O28" t="n">
-        <v>394.4637324396706</v>
+        <v>587.2625153529143</v>
       </c>
       <c r="P28" t="n">
-        <v>587.2625153529171</v>
+        <v>587.2625153529143</v>
       </c>
       <c r="Q28" t="n">
-        <v>587.2625153529171</v>
+        <v>587.2625153529143</v>
       </c>
       <c r="R28" t="n">
-        <v>587.2625153529171</v>
+        <v>587.2625153529143</v>
       </c>
       <c r="S28" t="n">
-        <v>537.0605423045145</v>
+        <v>537.060542304512</v>
       </c>
       <c r="T28" t="n">
-        <v>479.918262362286</v>
+        <v>479.9182623622839</v>
       </c>
       <c r="U28" t="n">
-        <v>362.8600190927282</v>
+        <v>362.8600190927264</v>
       </c>
       <c r="V28" t="n">
-        <v>280.316106493147</v>
+        <v>280.3161064931455</v>
       </c>
       <c r="W28" t="n">
-        <v>163.0395120624921</v>
+        <v>163.039512062491</v>
       </c>
       <c r="X28" t="n">
-        <v>107.1905367707805</v>
+        <v>107.1905367707797</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.53853323355607</v>
+        <v>58.53853323355563</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1317.975912536809</v>
+        <v>1317.975912536808</v>
       </c>
       <c r="C29" t="n">
-        <v>1121.153971202703</v>
+        <v>1121.153971202702</v>
       </c>
       <c r="D29" t="n">
-        <v>935.0288482022587</v>
+        <v>935.0288482022581</v>
       </c>
       <c r="E29" t="n">
-        <v>721.3811712103203</v>
+        <v>721.38117121032</v>
       </c>
       <c r="F29" t="n">
-        <v>482.5358420270186</v>
+        <v>482.5358420270184</v>
       </c>
       <c r="G29" t="n">
-        <v>235.6823111353151</v>
+        <v>235.682311135315</v>
       </c>
       <c r="H29" t="n">
-        <v>70.07662332757991</v>
+        <v>70.07662332757968</v>
       </c>
       <c r="I29" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="J29" t="n">
-        <v>49.03064400962202</v>
+        <v>247.8083511313891</v>
       </c>
       <c r="K29" t="n">
-        <v>383.5466641765619</v>
+        <v>582.3243712983292</v>
       </c>
       <c r="L29" t="n">
-        <v>810.2291236214066</v>
+        <v>840.2918525914336</v>
       </c>
       <c r="M29" t="n">
-        <v>1282.589175196995</v>
+        <v>1163.703027601527</v>
       </c>
       <c r="N29" t="n">
-        <v>1745.230523965919</v>
+        <v>1457.629398218711</v>
       </c>
       <c r="O29" t="n">
-        <v>2146.304201290226</v>
+        <v>1858.703075543018</v>
       </c>
       <c r="P29" t="n">
-        <v>2306.942592317978</v>
+        <v>2188.056444722511</v>
       </c>
       <c r="Q29" t="n">
-        <v>2451.532200481101</v>
+        <v>2400.182404824042</v>
       </c>
       <c r="R29" t="n">
-        <v>2451.532200481101</v>
+        <v>2451.532200481099</v>
       </c>
       <c r="S29" t="n">
-        <v>2424.017363698256</v>
+        <v>2424.017363698254</v>
       </c>
       <c r="T29" t="n">
-        <v>2373.013141047276</v>
+        <v>2373.013141047274</v>
       </c>
       <c r="U29" t="n">
-        <v>2291.309507419978</v>
+        <v>2291.309507419976</v>
       </c>
       <c r="V29" t="n">
-        <v>2132.387195682713</v>
+        <v>2132.387195682712</v>
       </c>
       <c r="W29" t="n">
-        <v>1951.759116018905</v>
+        <v>1951.759116018904</v>
       </c>
       <c r="X29" t="n">
-        <v>1750.433933364131</v>
+        <v>1750.43393336413</v>
       </c>
       <c r="Y29" t="n">
-        <v>1532.435176994625</v>
+        <v>1532.435176994624</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.34309768444319</v>
+        <v>52.87777034799383</v>
       </c>
       <c r="C30" t="n">
-        <v>49.03064400962202</v>
+        <v>50.56531667317283</v>
       </c>
       <c r="D30" t="n">
-        <v>49.03064400962202</v>
+        <v>50.56531667317283</v>
       </c>
       <c r="E30" t="n">
-        <v>49.03064400962202</v>
+        <v>63.21166517406642</v>
       </c>
       <c r="F30" t="n">
-        <v>49.03064400962202</v>
+        <v>63.21166517406642</v>
       </c>
       <c r="G30" t="n">
-        <v>49.03064400962202</v>
+        <v>63.21166517406642</v>
       </c>
       <c r="H30" t="n">
-        <v>49.03064400962202</v>
+        <v>63.21166517406642</v>
       </c>
       <c r="I30" t="n">
-        <v>49.03064400962202</v>
+        <v>63.21166517406642</v>
       </c>
       <c r="J30" t="n">
-        <v>49.03064400962202</v>
+        <v>63.21166517406642</v>
       </c>
       <c r="K30" t="n">
-        <v>49.03064400962202</v>
+        <v>63.21166517406642</v>
       </c>
       <c r="L30" t="n">
-        <v>49.03064400962202</v>
+        <v>350.4948507570347</v>
       </c>
       <c r="M30" t="n">
-        <v>352.8073044318569</v>
+        <v>350.4948507570347</v>
       </c>
       <c r="N30" t="n">
-        <v>352.8073044318569</v>
+        <v>350.4948507570347</v>
       </c>
       <c r="O30" t="n">
-        <v>352.8073044318569</v>
+        <v>350.4948507570347</v>
       </c>
       <c r="P30" t="n">
-        <v>352.8073044318569</v>
+        <v>350.4948507570347</v>
       </c>
       <c r="Q30" t="n">
-        <v>352.8073044318569</v>
+        <v>350.4948507570347</v>
       </c>
       <c r="R30" t="n">
-        <v>352.8073044318569</v>
+        <v>350.4948507570347</v>
       </c>
       <c r="S30" t="n">
-        <v>352.8073044318569</v>
+        <v>350.4948507570347</v>
       </c>
       <c r="T30" t="n">
-        <v>323.8473746020412</v>
+        <v>321.5349209272191</v>
       </c>
       <c r="U30" t="n">
-        <v>267.7820591896509</v>
+        <v>265.469605514829</v>
       </c>
       <c r="V30" t="n">
-        <v>204.770526564214</v>
+        <v>202.4580728893923</v>
       </c>
       <c r="W30" t="n">
-        <v>122.6737454423182</v>
+        <v>120.3612917674967</v>
       </c>
       <c r="X30" t="n">
-        <v>86.96282084309127</v>
+        <v>84.65036716826987</v>
       </c>
       <c r="Y30" t="n">
-        <v>51.34309768444319</v>
+        <v>49.03064400962197</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="C31" t="n">
-        <v>49.03064400962202</v>
+        <v>52.17126927372094</v>
       </c>
       <c r="D31" t="n">
-        <v>49.03064400962202</v>
+        <v>52.17126927372094</v>
       </c>
       <c r="E31" t="n">
-        <v>49.03064400962202</v>
+        <v>52.17126927372094</v>
       </c>
       <c r="F31" t="n">
-        <v>49.03064400962202</v>
+        <v>52.17126927372094</v>
       </c>
       <c r="G31" t="n">
-        <v>49.03064400962202</v>
+        <v>54.79658370994228</v>
       </c>
       <c r="H31" t="n">
-        <v>49.03064400962202</v>
+        <v>64.87516035812837</v>
       </c>
       <c r="I31" t="n">
-        <v>49.03064400962202</v>
+        <v>86.35244605612236</v>
       </c>
       <c r="J31" t="n">
-        <v>49.03064400962202</v>
+        <v>86.35244605612236</v>
       </c>
       <c r="K31" t="n">
-        <v>49.03064400962202</v>
+        <v>86.35244605612236</v>
       </c>
       <c r="L31" t="n">
-        <v>109.2617804750761</v>
+        <v>154.4486061471781</v>
       </c>
       <c r="M31" t="n">
-        <v>183.1561919439173</v>
+        <v>154.4486061471781</v>
       </c>
       <c r="N31" t="n">
-        <v>260.7281758920133</v>
+        <v>338.8297453886648</v>
       </c>
       <c r="O31" t="n">
-        <v>485.0771410947565</v>
+        <v>563.1787105914082</v>
       </c>
       <c r="P31" t="n">
-        <v>587.262515352916</v>
+        <v>587.2625153529145</v>
       </c>
       <c r="Q31" t="n">
-        <v>587.262515352916</v>
+        <v>587.2625153529145</v>
       </c>
       <c r="R31" t="n">
-        <v>587.262515352916</v>
+        <v>587.2625153529145</v>
       </c>
       <c r="S31" t="n">
-        <v>537.0605423045135</v>
+        <v>537.0605423045122</v>
       </c>
       <c r="T31" t="n">
-        <v>479.9182623622852</v>
+        <v>479.9182623622841</v>
       </c>
       <c r="U31" t="n">
-        <v>362.8600190927275</v>
+        <v>362.8600190927265</v>
       </c>
       <c r="V31" t="n">
-        <v>280.3161064931464</v>
+        <v>280.3161064931456</v>
       </c>
       <c r="W31" t="n">
-        <v>163.0395120624916</v>
+        <v>163.0395120624911</v>
       </c>
       <c r="X31" t="n">
-        <v>107.1905367707801</v>
+        <v>107.1905367707797</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.53853323355588</v>
+        <v>58.53853323355565</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1317.975912536809</v>
+        <v>1317.975912536808</v>
       </c>
       <c r="C32" t="n">
-        <v>1121.153971202704</v>
+        <v>1121.153971202702</v>
       </c>
       <c r="D32" t="n">
-        <v>935.0288482022592</v>
+        <v>935.0288482022581</v>
       </c>
       <c r="E32" t="n">
-        <v>721.3811712103208</v>
+        <v>721.38117121032</v>
       </c>
       <c r="F32" t="n">
-        <v>482.535842027019</v>
+        <v>482.5358420270184</v>
       </c>
       <c r="G32" t="n">
-        <v>235.6823111353153</v>
+        <v>235.6823111353151</v>
       </c>
       <c r="H32" t="n">
-        <v>70.07662332757991</v>
+        <v>70.07662332757971</v>
       </c>
       <c r="I32" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="J32" t="n">
-        <v>247.808351131389</v>
+        <v>80.40270211103604</v>
       </c>
       <c r="K32" t="n">
-        <v>433.3754947328375</v>
+        <v>414.9187222779761</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3429760259419</v>
+        <v>841.6011817228209</v>
       </c>
       <c r="M32" t="n">
-        <v>1163.70302760153</v>
+        <v>1220.718182985529</v>
       </c>
       <c r="N32" t="n">
-        <v>1457.629398218714</v>
+        <v>1508.979193875768</v>
       </c>
       <c r="O32" t="n">
-        <v>1858.703075543021</v>
+        <v>1910.052871200075</v>
       </c>
       <c r="P32" t="n">
-        <v>2188.056444722513</v>
+        <v>2239.406240379567</v>
       </c>
       <c r="Q32" t="n">
-        <v>2400.182404824045</v>
+        <v>2451.532200481099</v>
       </c>
       <c r="R32" t="n">
-        <v>2451.532200481101</v>
+        <v>2451.532200481099</v>
       </c>
       <c r="S32" t="n">
-        <v>2424.017363698256</v>
+        <v>2424.017363698254</v>
       </c>
       <c r="T32" t="n">
-        <v>2373.013141047276</v>
+        <v>2373.013141047274</v>
       </c>
       <c r="U32" t="n">
-        <v>2291.309507419978</v>
+        <v>2291.309507419977</v>
       </c>
       <c r="V32" t="n">
-        <v>2132.387195682713</v>
+        <v>2132.387195682712</v>
       </c>
       <c r="W32" t="n">
-        <v>1951.759116018905</v>
+        <v>1951.759116018904</v>
       </c>
       <c r="X32" t="n">
-        <v>1750.433933364131</v>
+        <v>1750.43393336413</v>
       </c>
       <c r="Y32" t="n">
-        <v>1532.435176994625</v>
+        <v>1532.435176994624</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.34309768444319</v>
+        <v>51.343097684443</v>
       </c>
       <c r="C33" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="D33" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="E33" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="F33" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="G33" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="H33" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="I33" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="J33" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="K33" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="L33" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="M33" t="n">
-        <v>352.8073044318569</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="N33" t="n">
-        <v>352.8073044318569</v>
+        <v>352.8073044318559</v>
       </c>
       <c r="O33" t="n">
-        <v>352.8073044318569</v>
+        <v>352.8073044318559</v>
       </c>
       <c r="P33" t="n">
-        <v>352.8073044318569</v>
+        <v>352.8073044318559</v>
       </c>
       <c r="Q33" t="n">
-        <v>352.8073044318569</v>
+        <v>352.8073044318559</v>
       </c>
       <c r="R33" t="n">
-        <v>352.8073044318569</v>
+        <v>352.8073044318559</v>
       </c>
       <c r="S33" t="n">
-        <v>352.8073044318569</v>
+        <v>352.8073044318559</v>
       </c>
       <c r="T33" t="n">
-        <v>323.8473746020412</v>
+        <v>323.8473746020403</v>
       </c>
       <c r="U33" t="n">
-        <v>267.7820591896509</v>
+        <v>267.7820591896501</v>
       </c>
       <c r="V33" t="n">
-        <v>204.770526564214</v>
+        <v>204.7705265642134</v>
       </c>
       <c r="W33" t="n">
-        <v>122.6737454423182</v>
+        <v>122.6737454423177</v>
       </c>
       <c r="X33" t="n">
-        <v>86.96282084309127</v>
+        <v>86.96282084309092</v>
       </c>
       <c r="Y33" t="n">
-        <v>51.34309768444319</v>
+        <v>51.343097684443</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="C34" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="D34" t="n">
-        <v>49.03064400962202</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="E34" t="n">
-        <v>72.77599914125889</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="F34" t="n">
-        <v>97.52413975029731</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="G34" t="n">
-        <v>97.52413975029731</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="H34" t="n">
-        <v>97.52413975029731</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="I34" t="n">
-        <v>97.52413975029731</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4669231359294</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="K34" t="n">
-        <v>193.143460362458</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="L34" t="n">
-        <v>261.2396204535135</v>
+        <v>277.9767586268165</v>
       </c>
       <c r="M34" t="n">
-        <v>429.9727395923109</v>
+        <v>351.8711700956578</v>
       </c>
       <c r="N34" t="n">
-        <v>507.5447235404068</v>
+        <v>500.2409950908885</v>
       </c>
       <c r="O34" t="n">
-        <v>563.1787105914096</v>
+        <v>563.1787105914083</v>
       </c>
       <c r="P34" t="n">
-        <v>587.262515352916</v>
+        <v>587.2625153529146</v>
       </c>
       <c r="Q34" t="n">
-        <v>587.262515352916</v>
+        <v>587.2625153529146</v>
       </c>
       <c r="R34" t="n">
-        <v>587.262515352916</v>
+        <v>587.2625153529146</v>
       </c>
       <c r="S34" t="n">
-        <v>537.0605423045135</v>
+        <v>537.0605423045123</v>
       </c>
       <c r="T34" t="n">
-        <v>479.9182623622852</v>
+        <v>479.9182623622842</v>
       </c>
       <c r="U34" t="n">
-        <v>362.8600190927275</v>
+        <v>362.8600190927266</v>
       </c>
       <c r="V34" t="n">
-        <v>280.3161064931464</v>
+        <v>280.3161064931458</v>
       </c>
       <c r="W34" t="n">
-        <v>163.0395120624916</v>
+        <v>163.0395120624912</v>
       </c>
       <c r="X34" t="n">
-        <v>107.1905367707801</v>
+        <v>107.1905367707798</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.53853323355588</v>
+        <v>58.53853323355568</v>
       </c>
     </row>
     <row r="35">
@@ -6911,70 +6911,70 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1123.550020801831</v>
+        <v>1123.55002080183</v>
       </c>
       <c r="C35" t="n">
-        <v>954.2429162505692</v>
+        <v>954.2429162505689</v>
       </c>
       <c r="D35" t="n">
-        <v>795.6326300329691</v>
+        <v>795.6326300329688</v>
       </c>
       <c r="E35" t="n">
-        <v>609.4997898238753</v>
+        <v>609.4997898238751</v>
       </c>
       <c r="F35" t="n">
-        <v>398.1692974234181</v>
+        <v>398.1692974234179</v>
       </c>
       <c r="G35" t="n">
-        <v>178.8306033145583</v>
+        <v>178.8306033145582</v>
       </c>
       <c r="H35" t="n">
-        <v>40.73975228966732</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="I35" t="n">
-        <v>47.07987949100271</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="J35" t="n">
-        <v>105.4192291232825</v>
+        <v>266.4847509423002</v>
       </c>
       <c r="K35" t="n">
-        <v>303.6071357574652</v>
+        <v>432.2857929574997</v>
       </c>
       <c r="L35" t="n">
-        <v>735.7937498912029</v>
+        <v>885.9355439332104</v>
       </c>
       <c r="M35" t="n">
-        <v>1039.438823315051</v>
+        <v>1363.256614952687</v>
       </c>
       <c r="N35" t="n">
-        <v>1529.047463614841</v>
+        <v>1363.256614952687</v>
       </c>
       <c r="O35" t="n">
-        <v>1957.088432470014</v>
+        <v>1363.256614952687</v>
       </c>
       <c r="P35" t="n">
-        <v>1994.828372090604</v>
+        <v>1719.577275663045</v>
       </c>
       <c r="Q35" t="n">
-        <v>2023.729782969696</v>
+        <v>1958.670527295442</v>
       </c>
       <c r="R35" t="n">
-        <v>2036.987614483366</v>
+        <v>2036.987614483365</v>
       </c>
       <c r="S35" t="n">
-        <v>2036.987614483366</v>
+        <v>2036.987614483365</v>
       </c>
       <c r="T35" t="n">
-        <v>2013.49822861523</v>
+        <v>2013.498228615229</v>
       </c>
       <c r="U35" t="n">
-        <v>1959.309431770777</v>
+        <v>1959.309431770776</v>
       </c>
       <c r="V35" t="n">
-        <v>1827.901956816357</v>
+        <v>1827.901956816356</v>
       </c>
       <c r="W35" t="n">
-        <v>1674.788713935393</v>
+        <v>1674.788713935392</v>
       </c>
       <c r="X35" t="n">
         <v>1500.978368063463</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>40.73975228966732</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="C36" t="n">
-        <v>40.73975228966732</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="D36" t="n">
-        <v>40.73975228966732</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="E36" t="n">
-        <v>40.73975228966732</v>
+        <v>80.35339232142671</v>
       </c>
       <c r="F36" t="n">
-        <v>40.73975228966732</v>
+        <v>80.35339232142671</v>
       </c>
       <c r="G36" t="n">
-        <v>40.73975228966732</v>
+        <v>80.35339232142671</v>
       </c>
       <c r="H36" t="n">
-        <v>40.73975228966732</v>
+        <v>80.35339232142671</v>
       </c>
       <c r="I36" t="n">
-        <v>40.73975228966732</v>
+        <v>80.35339232142671</v>
       </c>
       <c r="J36" t="n">
-        <v>40.73975228966732</v>
+        <v>175.4173127582618</v>
       </c>
       <c r="K36" t="n">
-        <v>40.73975228966732</v>
+        <v>175.4173127582618</v>
       </c>
       <c r="L36" t="n">
-        <v>40.73975228966732</v>
+        <v>175.4173127582618</v>
       </c>
       <c r="M36" t="n">
-        <v>40.73975228966732</v>
+        <v>175.4173127582618</v>
       </c>
       <c r="N36" t="n">
-        <v>40.73975228966732</v>
+        <v>175.4173127582618</v>
       </c>
       <c r="O36" t="n">
-        <v>40.73975228966732</v>
+        <v>175.4173127582618</v>
       </c>
       <c r="P36" t="n">
-        <v>177.1149383400139</v>
+        <v>175.4173127582618</v>
       </c>
       <c r="Q36" t="n">
-        <v>177.1149383400139</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="R36" t="n">
-        <v>177.1149383400139</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="S36" t="n">
-        <v>177.1149383400139</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="T36" t="n">
-        <v>175.6698452930427</v>
+        <v>175.6698452930422</v>
       </c>
       <c r="U36" t="n">
-        <v>147.1193666634969</v>
+        <v>147.1193666634965</v>
       </c>
       <c r="V36" t="n">
-        <v>111.6226708209046</v>
+        <v>111.6226708209043</v>
       </c>
       <c r="W36" t="n">
-        <v>57.0407264818533</v>
+        <v>57.04072648185311</v>
       </c>
       <c r="X36" t="n">
-        <v>48.84463866547085</v>
+        <v>48.84463866547075</v>
       </c>
       <c r="Y36" t="n">
-        <v>40.73975228966732</v>
+        <v>40.73975228966729</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.73975228966732</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="C37" t="n">
-        <v>40.73975228966732</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="D37" t="n">
-        <v>40.73975228966732</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="E37" t="n">
-        <v>40.73975228966732</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="F37" t="n">
-        <v>40.73975228966732</v>
+        <v>77.44304571172131</v>
       </c>
       <c r="G37" t="n">
-        <v>40.73975228966732</v>
+        <v>77.44304571172131</v>
       </c>
       <c r="H37" t="n">
-        <v>40.73975228966732</v>
+        <v>77.44304571172131</v>
       </c>
       <c r="I37" t="n">
-        <v>40.73975228966732</v>
+        <v>125.8876229405811</v>
       </c>
       <c r="J37" t="n">
-        <v>40.73975228966732</v>
+        <v>125.8876229405811</v>
       </c>
       <c r="K37" t="n">
-        <v>40.73975228966732</v>
+        <v>219.57010116851</v>
       </c>
       <c r="L37" t="n">
-        <v>40.73975228966732</v>
+        <v>219.57010116851</v>
       </c>
       <c r="M37" t="n">
-        <v>40.73975228966732</v>
+        <v>219.57010116851</v>
       </c>
       <c r="N37" t="n">
-        <v>200.8452931345182</v>
+        <v>297.1420851166059</v>
       </c>
       <c r="O37" t="n">
-        <v>290.7503001659038</v>
+        <v>352.7760721676088</v>
       </c>
       <c r="P37" t="n">
-        <v>376.8598769291157</v>
+        <v>376.8598769291151</v>
       </c>
       <c r="Q37" t="n">
-        <v>376.8598769291157</v>
+        <v>376.8598769291151</v>
       </c>
       <c r="R37" t="n">
-        <v>376.8598769291157</v>
+        <v>376.8598769291151</v>
       </c>
       <c r="S37" t="n">
-        <v>354.1727406635577</v>
+        <v>354.1727406635572</v>
       </c>
       <c r="T37" t="n">
-        <v>324.545297504174</v>
+        <v>324.5452975041736</v>
       </c>
       <c r="U37" t="n">
-        <v>235.0018910174608</v>
+        <v>235.0018910174604</v>
       </c>
       <c r="V37" t="n">
-        <v>179.9728152007243</v>
+        <v>179.972815200724</v>
       </c>
       <c r="W37" t="n">
-        <v>90.21105755291401</v>
+        <v>90.21105755291383</v>
       </c>
       <c r="X37" t="n">
-        <v>61.87691904404704</v>
+        <v>61.87691904404694</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.73975228966732</v>
+        <v>40.73975228966729</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7148,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1123.55002080183</v>
+        <v>1123.550020801829</v>
       </c>
       <c r="C38" t="n">
-        <v>954.2429162505686</v>
+        <v>954.2429162505681</v>
       </c>
       <c r="D38" t="n">
-        <v>795.6326300329686</v>
+        <v>795.6326300329681</v>
       </c>
       <c r="E38" t="n">
-        <v>609.4997898238748</v>
+        <v>609.4997898238744</v>
       </c>
       <c r="F38" t="n">
-        <v>398.1692974234177</v>
+        <v>398.1692974234173</v>
       </c>
       <c r="G38" t="n">
-        <v>178.8306033145583</v>
+        <v>178.8306033145581</v>
       </c>
       <c r="H38" t="n">
-        <v>40.73975228966734</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="I38" t="n">
-        <v>47.07987949100267</v>
+        <v>47.0798794910028</v>
       </c>
       <c r="J38" t="n">
-        <v>272.8248781436355</v>
+        <v>272.8248781436358</v>
       </c>
       <c r="K38" t="n">
-        <v>634.3081898414412</v>
+        <v>435.8883029910589</v>
       </c>
       <c r="L38" t="n">
-        <v>1087.957940817152</v>
+        <v>435.8883029910589</v>
       </c>
       <c r="M38" t="n">
-        <v>1587.285283923606</v>
+        <v>935.2156460975133</v>
       </c>
       <c r="N38" t="n">
-        <v>1643.920469055531</v>
+        <v>935.2156460975133</v>
       </c>
       <c r="O38" t="n">
-        <v>1643.920469055531</v>
+        <v>1363.256614952687</v>
       </c>
       <c r="P38" t="n">
-        <v>1994.828372090606</v>
+        <v>1719.577275663045</v>
       </c>
       <c r="Q38" t="n">
-        <v>2023.729782969697</v>
+        <v>1958.670527295442</v>
       </c>
       <c r="R38" t="n">
-        <v>2036.987614483367</v>
+        <v>2036.987614483365</v>
       </c>
       <c r="S38" t="n">
-        <v>2036.987614483367</v>
+        <v>2036.987614483365</v>
       </c>
       <c r="T38" t="n">
-        <v>2013.498228615231</v>
+        <v>2013.498228615229</v>
       </c>
       <c r="U38" t="n">
-        <v>1959.309431770777</v>
+        <v>1959.309431770775</v>
       </c>
       <c r="V38" t="n">
-        <v>1827.901956816356</v>
+        <v>1827.901956816355</v>
       </c>
       <c r="W38" t="n">
-        <v>1674.788713935392</v>
+        <v>1674.788713935391</v>
       </c>
       <c r="X38" t="n">
-        <v>1500.978368063463</v>
+        <v>1500.978368063462</v>
       </c>
       <c r="Y38" t="n">
         <v>1310.494448476801</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>40.73975228966734</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="C39" t="n">
-        <v>40.73975228966734</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="D39" t="n">
-        <v>40.73975228966734</v>
+        <v>90.45140706328131</v>
       </c>
       <c r="E39" t="n">
-        <v>40.73975228966734</v>
+        <v>90.45140706328131</v>
       </c>
       <c r="F39" t="n">
-        <v>40.73975228966734</v>
+        <v>90.45140706328131</v>
       </c>
       <c r="G39" t="n">
-        <v>40.73975228966734</v>
+        <v>90.45140706328131</v>
       </c>
       <c r="H39" t="n">
-        <v>40.73975228966734</v>
+        <v>90.45140706328131</v>
       </c>
       <c r="I39" t="n">
-        <v>40.73975228966734</v>
+        <v>90.45140706328131</v>
       </c>
       <c r="J39" t="n">
-        <v>40.73975228966734</v>
+        <v>177.1149383400131</v>
       </c>
       <c r="K39" t="n">
-        <v>40.73975228966734</v>
+        <v>177.1149383400131</v>
       </c>
       <c r="L39" t="n">
-        <v>40.73975228966734</v>
+        <v>177.1149383400131</v>
       </c>
       <c r="M39" t="n">
-        <v>40.73975228966734</v>
+        <v>177.1149383400131</v>
       </c>
       <c r="N39" t="n">
-        <v>177.1149383400142</v>
+        <v>177.1149383400131</v>
       </c>
       <c r="O39" t="n">
-        <v>177.1149383400142</v>
+        <v>177.1149383400131</v>
       </c>
       <c r="P39" t="n">
-        <v>177.1149383400142</v>
+        <v>177.1149383400131</v>
       </c>
       <c r="Q39" t="n">
-        <v>177.1149383400142</v>
+        <v>177.1149383400131</v>
       </c>
       <c r="R39" t="n">
-        <v>177.1149383400142</v>
+        <v>177.1149383400131</v>
       </c>
       <c r="S39" t="n">
-        <v>177.1149383400142</v>
+        <v>177.1149383400131</v>
       </c>
       <c r="T39" t="n">
-        <v>175.669845293043</v>
+        <v>175.6698452930421</v>
       </c>
       <c r="U39" t="n">
-        <v>147.1193666634971</v>
+        <v>147.1193666634964</v>
       </c>
       <c r="V39" t="n">
-        <v>111.6226708209047</v>
+        <v>111.6226708209042</v>
       </c>
       <c r="W39" t="n">
-        <v>57.04072648185343</v>
+        <v>57.04072648185304</v>
       </c>
       <c r="X39" t="n">
-        <v>48.84463866547093</v>
+        <v>48.84463866547072</v>
       </c>
       <c r="Y39" t="n">
-        <v>40.73975228966734</v>
+        <v>40.73975228966729</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.73975228966734</v>
+        <v>58.38836159215575</v>
       </c>
       <c r="C40" t="n">
-        <v>40.73975228966734</v>
+        <v>88.49627838712057</v>
       </c>
       <c r="D40" t="n">
-        <v>89.29270368424332</v>
+        <v>88.49627838712057</v>
       </c>
       <c r="E40" t="n">
-        <v>140.0053503467461</v>
+        <v>88.49627838712057</v>
       </c>
       <c r="F40" t="n">
-        <v>140.0053503467461</v>
+        <v>88.49627838712057</v>
       </c>
       <c r="G40" t="n">
-        <v>169.5979563138331</v>
+        <v>88.49627838712057</v>
       </c>
       <c r="H40" t="n">
-        <v>206.6438244928848</v>
+        <v>88.49627838712057</v>
       </c>
       <c r="I40" t="n">
-        <v>227.46545531816</v>
+        <v>88.49627838712057</v>
       </c>
       <c r="J40" t="n">
-        <v>346.375530234658</v>
+        <v>174.1064743941226</v>
       </c>
       <c r="K40" t="n">
-        <v>346.375530234658</v>
+        <v>267.7889526220515</v>
       </c>
       <c r="L40" t="n">
-        <v>376.8598769291161</v>
+        <v>273.7051629744298</v>
       </c>
       <c r="M40" t="n">
-        <v>376.8598769291161</v>
+        <v>273.7051629744298</v>
       </c>
       <c r="N40" t="n">
-        <v>376.8598769291161</v>
+        <v>376.8598769291149</v>
       </c>
       <c r="O40" t="n">
-        <v>376.8598769291161</v>
+        <v>376.8598769291149</v>
       </c>
       <c r="P40" t="n">
-        <v>376.8598769291161</v>
+        <v>376.8598769291149</v>
       </c>
       <c r="Q40" t="n">
-        <v>376.8598769291161</v>
+        <v>376.8598769291149</v>
       </c>
       <c r="R40" t="n">
-        <v>376.8598769291161</v>
+        <v>376.8598769291149</v>
       </c>
       <c r="S40" t="n">
-        <v>354.1727406635581</v>
+        <v>354.172740663557</v>
       </c>
       <c r="T40" t="n">
-        <v>324.5452975041743</v>
+        <v>324.5452975041734</v>
       </c>
       <c r="U40" t="n">
-        <v>235.001891017461</v>
+        <v>235.0018910174603</v>
       </c>
       <c r="V40" t="n">
-        <v>179.9728152007245</v>
+        <v>179.9728152007239</v>
       </c>
       <c r="W40" t="n">
-        <v>90.21105755291416</v>
+        <v>90.21105755291376</v>
       </c>
       <c r="X40" t="n">
-        <v>61.87691904404713</v>
+        <v>61.87691904404691</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.73975228966734</v>
+        <v>40.73975228966729</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1123.550020801831</v>
+        <v>1123.55002080183</v>
       </c>
       <c r="C41" t="n">
-        <v>954.2429162505696</v>
+        <v>954.2429162505683</v>
       </c>
       <c r="D41" t="n">
-        <v>795.6326300329694</v>
+        <v>795.6326300329683</v>
       </c>
       <c r="E41" t="n">
-        <v>609.4997898238755</v>
+        <v>609.4997898238746</v>
       </c>
       <c r="F41" t="n">
-        <v>398.1692974234184</v>
+        <v>398.1692974234177</v>
       </c>
       <c r="G41" t="n">
-        <v>178.8306033145583</v>
+        <v>178.8306033145582</v>
       </c>
       <c r="H41" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
       <c r="I41" t="n">
-        <v>47.0798794910027</v>
+        <v>47.07987949100278</v>
       </c>
       <c r="J41" t="n">
-        <v>77.14260846102928</v>
+        <v>272.8248781436357</v>
       </c>
       <c r="K41" t="n">
-        <v>370.6217650413301</v>
+        <v>616.0666256029806</v>
       </c>
       <c r="L41" t="n">
-        <v>824.2715160170408</v>
+        <v>1069.716376578691</v>
       </c>
       <c r="M41" t="n">
-        <v>878.5804609655908</v>
+        <v>1569.043719685146</v>
       </c>
       <c r="N41" t="n">
-        <v>935.2156460975161</v>
+        <v>1569.043719685146</v>
       </c>
       <c r="O41" t="n">
-        <v>1363.256614952689</v>
+        <v>1620.092509090201</v>
       </c>
       <c r="P41" t="n">
-        <v>1719.577275663047</v>
+        <v>1784.636531337298</v>
       </c>
       <c r="Q41" t="n">
-        <v>1958.670527295445</v>
+        <v>2023.729782969695</v>
       </c>
       <c r="R41" t="n">
-        <v>2036.987614483367</v>
+        <v>2036.987614483365</v>
       </c>
       <c r="S41" t="n">
-        <v>2036.987614483367</v>
+        <v>2036.987614483365</v>
       </c>
       <c r="T41" t="n">
-        <v>2013.498228615231</v>
+        <v>2013.498228615229</v>
       </c>
       <c r="U41" t="n">
-        <v>1959.309431770778</v>
+        <v>1959.309431770776</v>
       </c>
       <c r="V41" t="n">
-        <v>1827.901956816357</v>
+        <v>1827.901956816356</v>
       </c>
       <c r="W41" t="n">
-        <v>1674.788713935393</v>
+        <v>1674.788713935392</v>
       </c>
       <c r="X41" t="n">
-        <v>1500.978368063464</v>
+        <v>1500.978368063462</v>
       </c>
       <c r="Y41" t="n">
-        <v>1310.494448476802</v>
+        <v>1310.494448476801</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40.73975228966734</v>
+        <v>71.55417015890498</v>
       </c>
       <c r="C42" t="n">
-        <v>40.73975228966734</v>
+        <v>71.55417015890498</v>
       </c>
       <c r="D42" t="n">
-        <v>40.73975228966734</v>
+        <v>71.55417015890498</v>
       </c>
       <c r="E42" t="n">
-        <v>40.73975228966734</v>
+        <v>71.55417015890498</v>
       </c>
       <c r="F42" t="n">
-        <v>40.73975228966734</v>
+        <v>71.55417015890498</v>
       </c>
       <c r="G42" t="n">
-        <v>40.73975228966734</v>
+        <v>78.63718541330127</v>
       </c>
       <c r="H42" t="n">
-        <v>40.73975228966734</v>
+        <v>78.63718541330127</v>
       </c>
       <c r="I42" t="n">
-        <v>40.73975228966734</v>
+        <v>78.63718541330127</v>
       </c>
       <c r="J42" t="n">
-        <v>40.73975228966734</v>
+        <v>78.63718541330127</v>
       </c>
       <c r="K42" t="n">
-        <v>40.73975228966734</v>
+        <v>78.63718541330127</v>
       </c>
       <c r="L42" t="n">
-        <v>40.73975228966734</v>
+        <v>78.63718541330127</v>
       </c>
       <c r="M42" t="n">
-        <v>40.73975228966734</v>
+        <v>78.63718541330127</v>
       </c>
       <c r="N42" t="n">
-        <v>40.73975228966734</v>
+        <v>78.63718541330127</v>
       </c>
       <c r="O42" t="n">
-        <v>40.73975228966734</v>
+        <v>78.63718541330127</v>
       </c>
       <c r="P42" t="n">
-        <v>177.114938340014</v>
+        <v>78.63718541330127</v>
       </c>
       <c r="Q42" t="n">
-        <v>177.114938340014</v>
+        <v>78.63718541330127</v>
       </c>
       <c r="R42" t="n">
-        <v>177.114938340014</v>
+        <v>146.4936152463367</v>
       </c>
       <c r="S42" t="n">
-        <v>177.114938340014</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="T42" t="n">
-        <v>175.6698452930428</v>
+        <v>175.6698452930422</v>
       </c>
       <c r="U42" t="n">
-        <v>147.119366663497</v>
+        <v>147.1193666634965</v>
       </c>
       <c r="V42" t="n">
-        <v>111.6226708209047</v>
+        <v>111.6226708209043</v>
       </c>
       <c r="W42" t="n">
-        <v>57.04072648185338</v>
+        <v>57.04072648185311</v>
       </c>
       <c r="X42" t="n">
-        <v>48.8446386654709</v>
+        <v>48.84463866547075</v>
       </c>
       <c r="Y42" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
       <c r="C43" t="n">
-        <v>40.73975228966734</v>
+        <v>70.8476690846321</v>
       </c>
       <c r="D43" t="n">
-        <v>40.73975228966734</v>
+        <v>119.4006204792082</v>
       </c>
       <c r="E43" t="n">
-        <v>40.73975228966734</v>
+        <v>119.4006204792082</v>
       </c>
       <c r="F43" t="n">
-        <v>40.73975228966734</v>
+        <v>171.1160526191126</v>
       </c>
       <c r="G43" t="n">
-        <v>40.73975228966734</v>
+        <v>188.094966967428</v>
       </c>
       <c r="H43" t="n">
-        <v>40.73975228966734</v>
+        <v>188.094966967428</v>
       </c>
       <c r="I43" t="n">
-        <v>40.73975228966734</v>
+        <v>188.094966967428</v>
       </c>
       <c r="J43" t="n">
-        <v>40.73975228966734</v>
+        <v>273.70516297443</v>
       </c>
       <c r="K43" t="n">
-        <v>44.41628951619586</v>
+        <v>273.70516297443</v>
       </c>
       <c r="L43" t="n">
-        <v>44.41628951619586</v>
+        <v>273.70516297443</v>
       </c>
       <c r="M43" t="n">
-        <v>44.41628951619586</v>
+        <v>273.70516297443</v>
       </c>
       <c r="N43" t="n">
-        <v>157.0938024850033</v>
+        <v>376.8598769291151</v>
       </c>
       <c r="O43" t="n">
-        <v>157.0938024850033</v>
+        <v>376.8598769291151</v>
       </c>
       <c r="P43" t="n">
-        <v>376.8598769291159</v>
+        <v>376.8598769291151</v>
       </c>
       <c r="Q43" t="n">
-        <v>376.8598769291159</v>
+        <v>376.8598769291151</v>
       </c>
       <c r="R43" t="n">
-        <v>376.8598769291159</v>
+        <v>376.8598769291151</v>
       </c>
       <c r="S43" t="n">
-        <v>354.1727406635579</v>
+        <v>354.1727406635572</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5452975041741</v>
+        <v>324.5452975041736</v>
       </c>
       <c r="U43" t="n">
-        <v>235.0018910174609</v>
+        <v>235.0018910174604</v>
       </c>
       <c r="V43" t="n">
-        <v>179.9728152007244</v>
+        <v>179.972815200724</v>
       </c>
       <c r="W43" t="n">
-        <v>90.2110575529141</v>
+        <v>90.21105755291383</v>
       </c>
       <c r="X43" t="n">
-        <v>61.8769190440471</v>
+        <v>61.87691904404694</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1123.55002080183</v>
+        <v>1123.550020801829</v>
       </c>
       <c r="C44" t="n">
         <v>954.2429162505682</v>
@@ -7631,64 +7631,64 @@
         <v>795.6326300329681</v>
       </c>
       <c r="E44" t="n">
-        <v>609.4997898238742</v>
+        <v>609.4997898238743</v>
       </c>
       <c r="F44" t="n">
-        <v>398.1692974234168</v>
+        <v>398.1692974234171</v>
       </c>
       <c r="G44" t="n">
-        <v>178.8306033145585</v>
+        <v>178.8306033145583</v>
       </c>
       <c r="H44" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
       <c r="I44" t="n">
-        <v>47.07987949100256</v>
+        <v>47.0798794910027</v>
       </c>
       <c r="J44" t="n">
-        <v>272.8248781436353</v>
+        <v>272.8248781436355</v>
       </c>
       <c r="K44" t="n">
-        <v>272.8248781436353</v>
+        <v>634.3081898414414</v>
       </c>
       <c r="L44" t="n">
-        <v>530.7923594367396</v>
+        <v>892.2756711345457</v>
       </c>
       <c r="M44" t="n">
-        <v>916.5403719078913</v>
+        <v>1195.920744558394</v>
       </c>
       <c r="N44" t="n">
-        <v>1210.466742525075</v>
+        <v>1564.164619392274</v>
       </c>
       <c r="O44" t="n">
-        <v>1638.507711380248</v>
+        <v>1615.21340879733</v>
       </c>
       <c r="P44" t="n">
-        <v>1994.828372090606</v>
+        <v>1971.534069507688</v>
       </c>
       <c r="Q44" t="n">
-        <v>2023.729782969697</v>
+        <v>2023.729782969695</v>
       </c>
       <c r="R44" t="n">
-        <v>2036.987614483367</v>
+        <v>2036.987614483365</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.987614483367</v>
+        <v>2036.987614483365</v>
       </c>
       <c r="T44" t="n">
-        <v>2013.498228615231</v>
+        <v>2013.498228615229</v>
       </c>
       <c r="U44" t="n">
-        <v>1959.309431770777</v>
+        <v>1959.309431770776</v>
       </c>
       <c r="V44" t="n">
-        <v>1827.901956816356</v>
+        <v>1827.901956816355</v>
       </c>
       <c r="W44" t="n">
         <v>1674.788713935392</v>
       </c>
       <c r="X44" t="n">
-        <v>1500.978368063463</v>
+        <v>1500.978368063462</v>
       </c>
       <c r="Y44" t="n">
         <v>1310.494448476801</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
       <c r="C45" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
       <c r="D45" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
       <c r="E45" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
       <c r="F45" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
       <c r="G45" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
       <c r="H45" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
       <c r="I45" t="n">
-        <v>146.9875065067192</v>
+        <v>146.9875065067193</v>
       </c>
       <c r="J45" t="n">
-        <v>146.9875065067192</v>
+        <v>146.9875065067193</v>
       </c>
       <c r="K45" t="n">
-        <v>146.9875065067192</v>
+        <v>146.9875065067193</v>
       </c>
       <c r="L45" t="n">
-        <v>146.9875065067192</v>
+        <v>146.9875065067193</v>
       </c>
       <c r="M45" t="n">
-        <v>146.9875065067192</v>
+        <v>146.9875065067193</v>
       </c>
       <c r="N45" t="n">
-        <v>146.9875065067192</v>
+        <v>146.9875065067193</v>
       </c>
       <c r="O45" t="n">
-        <v>146.9875065067192</v>
+        <v>177.1149383400139</v>
       </c>
       <c r="P45" t="n">
-        <v>146.9875065067192</v>
+        <v>177.1149383400139</v>
       </c>
       <c r="Q45" t="n">
-        <v>146.9875065067192</v>
+        <v>177.1149383400139</v>
       </c>
       <c r="R45" t="n">
-        <v>177.114938340015</v>
+        <v>177.1149383400139</v>
       </c>
       <c r="S45" t="n">
-        <v>177.114938340015</v>
+        <v>177.1149383400139</v>
       </c>
       <c r="T45" t="n">
-        <v>175.6698452930436</v>
+        <v>175.6698452930427</v>
       </c>
       <c r="U45" t="n">
-        <v>147.1193666634976</v>
+        <v>147.1193666634969</v>
       </c>
       <c r="V45" t="n">
-        <v>111.6226708209051</v>
+        <v>111.6226708209045</v>
       </c>
       <c r="W45" t="n">
-        <v>57.04072648185367</v>
+        <v>57.04072648185328</v>
       </c>
       <c r="X45" t="n">
-        <v>48.84463866547105</v>
+        <v>48.84463866547084</v>
       </c>
       <c r="Y45" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.73975228966734</v>
+        <v>58.38836159215565</v>
       </c>
       <c r="C46" t="n">
-        <v>70.84766908463189</v>
+        <v>88.49627838712036</v>
       </c>
       <c r="D46" t="n">
-        <v>119.4006204792078</v>
+        <v>88.49627838712036</v>
       </c>
       <c r="E46" t="n">
-        <v>170.1132671417104</v>
+        <v>88.49627838712036</v>
       </c>
       <c r="F46" t="n">
-        <v>221.8286992816145</v>
+        <v>140.2117105270247</v>
       </c>
       <c r="G46" t="n">
-        <v>251.4213052487015</v>
+        <v>169.8043164941118</v>
       </c>
       <c r="H46" t="n">
-        <v>288.4671734277531</v>
+        <v>206.8501846731636</v>
       </c>
       <c r="I46" t="n">
-        <v>336.9117506566127</v>
+        <v>255.2947619020233</v>
       </c>
       <c r="J46" t="n">
-        <v>336.9117506566127</v>
+        <v>286.5117161452733</v>
       </c>
       <c r="K46" t="n">
-        <v>336.9117506566127</v>
+        <v>286.5117161452733</v>
       </c>
       <c r="L46" t="n">
-        <v>336.9117506566127</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="M46" t="n">
-        <v>336.9117506566127</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="N46" t="n">
-        <v>336.9117506566127</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="O46" t="n">
-        <v>336.9117506566127</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="P46" t="n">
-        <v>336.9117506566127</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="Q46" t="n">
-        <v>376.8598769291169</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="R46" t="n">
-        <v>376.8598769291169</v>
+        <v>376.8598769291157</v>
       </c>
       <c r="S46" t="n">
-        <v>354.1727406635588</v>
+        <v>354.1727406635577</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5452975041749</v>
+        <v>324.545297504174</v>
       </c>
       <c r="U46" t="n">
-        <v>235.0018910174615</v>
+        <v>235.0018910174608</v>
       </c>
       <c r="V46" t="n">
-        <v>179.9728152007248</v>
+        <v>179.9728152007243</v>
       </c>
       <c r="W46" t="n">
-        <v>90.21105755291438</v>
+        <v>90.211057552914</v>
       </c>
       <c r="X46" t="n">
-        <v>61.87691904404724</v>
+        <v>61.87691904404703</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.73975228966734</v>
+        <v>40.7397522896673</v>
       </c>
     </row>
   </sheetData>
@@ -8693,25 +8693,25 @@
         <v>156.6696125558117</v>
       </c>
       <c r="L11" t="n">
-        <v>56.01431489276631</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>142.8013381152083</v>
+        <v>184.0836297429167</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>62.15495627172217</v>
       </c>
       <c r="O11" t="n">
-        <v>99.69607026907488</v>
+        <v>146.0944245227789</v>
       </c>
       <c r="P11" t="n">
-        <v>159.5377071333493</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.39182771263813</v>
+        <v>67.39182771263795</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>156.6696125558117</v>
       </c>
       <c r="L14" t="n">
-        <v>157.0880011230722</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>95.04759215604238</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>140.4516005562433</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>159.5377071333493</v>
       </c>
       <c r="Q14" t="n">
-        <v>193.805016157855</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.583531092497907</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>103.8688412439494</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>110.6794877973681</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>168.594235572131</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>299.0601228206221</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9948,19 +9948,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>101.6346962078498</v>
       </c>
       <c r="K27" t="n">
-        <v>94.76561655653892</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>80.63362065245525</v>
       </c>
       <c r="M27" t="n">
-        <v>294.5645217911443</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>61.96199093401879</v>
@@ -9969,7 +9969,7 @@
         <v>79.12735402155596</v>
       </c>
       <c r="P27" t="n">
-        <v>83.0350273337411</v>
+        <v>220.180518415311</v>
       </c>
       <c r="Q27" t="n">
         <v>105.9301475100312</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10039,7 +10039,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>103.8688412439494</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10048,10 +10048,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>110.6794877973681</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.68824138229165</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>138.730222273057</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.0964533483812</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>13.84793941130931</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>101.6346962078498</v>
@@ -10194,10 +10194,10 @@
         <v>94.76561655653892</v>
       </c>
       <c r="L30" t="n">
-        <v>80.63362065245525</v>
+        <v>201.1650517338546</v>
       </c>
       <c r="M30" t="n">
-        <v>381.3883515036452</v>
+        <v>74.54323996603426</v>
       </c>
       <c r="N30" t="n">
         <v>61.96199093401879</v>
@@ -10273,22 +10273,22 @@
         <v>103.0300923784621</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>103.8688412439494</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>109.2865826441085</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>88.44132950375462</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>173.6920018989513</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>431.624338829212</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>101.6346962078498</v>
@@ -10434,10 +10434,10 @@
         <v>80.63362065245525</v>
       </c>
       <c r="M33" t="n">
-        <v>381.3883515036452</v>
+        <v>74.54323996603426</v>
       </c>
       <c r="N33" t="n">
-        <v>61.96199093401879</v>
+        <v>368.8071024716288</v>
       </c>
       <c r="O33" t="n">
         <v>79.12735402155596</v>
@@ -10449,7 +10449,7 @@
         <v>105.9301475100312</v>
       </c>
       <c r="R33" t="n">
-        <v>7.481090979964105</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,10 +10507,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>103.0300923784621</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
         <v>178.5096609094456</v>
@@ -10519,7 +10519,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>159.2005589715454</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>427.2849758292181</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>31.83081318383455</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>146.0944245227789</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>101.6346962078498</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>94.7656165565389</v>
+        <v>94.76561655653892</v>
       </c>
       <c r="L36" t="n">
-        <v>80.63362065245522</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>74.54323996603424</v>
+        <v>74.54323996603426</v>
       </c>
       <c r="N36" t="n">
-        <v>61.96199093401877</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>79.12735402155593</v>
+        <v>79.12735402155596</v>
       </c>
       <c r="P36" t="n">
-        <v>220.7877405159093</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.9301475100312</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,10 +10744,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>103.0300923784621</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>101.6351697582675</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>103.8688412439494</v>
@@ -10756,13 +10756,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>123.721284439465</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>157.0880011230722</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>140.4516005562433</v>
       </c>
       <c r="O38" t="n">
-        <v>146.0944245227789</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>316.3312761762465</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>101.6346962078498</v>
+        <v>35.97456309307461</v>
       </c>
       <c r="K39" t="n">
         <v>94.76561655653892</v>
@@ -10908,10 +10908,10 @@
         <v>80.63362065245525</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>74.54323996603426</v>
       </c>
       <c r="N39" t="n">
-        <v>199.7147041161874</v>
+        <v>61.96199093401879</v>
       </c>
       <c r="O39" t="n">
         <v>79.12735402155596</v>
@@ -10978,19 +10978,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>103.0300923784621</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>132.4274391466091</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>103.8688412439494</v>
       </c>
       <c r="N40" t="n">
-        <v>93.46217750295074</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>106.8457198497179</v>
@@ -10999,7 +10999,7 @@
         <v>110.6794877973681</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>255.4543467959073</v>
+        <v>305.7195901080729</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>140.4516005562433</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>101.6346962078498</v>
       </c>
       <c r="K42" t="n">
-        <v>94.76561655653892</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>80.63362065245525</v>
@@ -11154,7 +11154,7 @@
         <v>79.12735402155596</v>
       </c>
       <c r="P42" t="n">
-        <v>220.7877405159095</v>
+        <v>83.0350273337411</v>
       </c>
       <c r="Q42" t="n">
         <v>105.9301475100312</v>
@@ -11218,25 +11218,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>103.0300923784621</v>
       </c>
       <c r="L43" t="n">
-        <v>101.6351697582675</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>103.8688412439494</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9.618988903153991</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>106.8457198497179</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>110.6794877973681</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.88085093241968</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>156.6696125558117</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>334.786936891517</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>23.5295985686016</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>101.6346962078498</v>
       </c>
       <c r="K45" t="n">
-        <v>94.76561655653892</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>80.63362065245525</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>74.54323996603426</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>61.96199093401879</v>
+        <v>61.96199093401877</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>83.0350273337411</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>31.87668857443806</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11452,25 +11452,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>103.0300923784621</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>103.8688412439494</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>93.46217750295071</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>106.8457198497179</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>110.679487797368</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.0240089337408</v>
+        <v>178.0240089337409</v>
       </c>
       <c r="C11" t="n">
-        <v>56.92691254183403</v>
+        <v>160.5630590412678</v>
       </c>
       <c r="D11" t="n">
-        <v>149.9732088909432</v>
+        <v>74.89400859921557</v>
       </c>
       <c r="E11" t="n">
         <v>177.2205373425221</v>
       </c>
       <c r="F11" t="n">
-        <v>98.53006651253791</v>
+        <v>202.1662130119717</v>
       </c>
       <c r="G11" t="n">
         <v>210.0943327032895</v>
       </c>
       <c r="H11" t="n">
-        <v>84.97218462498699</v>
+        <v>26.02282155072759</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>16.20351754497338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.59593441152833</v>
       </c>
       <c r="V11" t="n">
-        <v>123.0424257403952</v>
+        <v>19.40627924096162</v>
       </c>
       <c r="W11" t="n">
-        <v>144.5311359876733</v>
+        <v>40.89498948823973</v>
       </c>
       <c r="X11" t="n">
-        <v>61.38512144929551</v>
+        <v>165.0212679487293</v>
       </c>
       <c r="Y11" t="n">
         <v>181.5281059263139</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>149.5407430535415</v>
+        <v>178.0240089337408</v>
       </c>
       <c r="C14" t="n">
-        <v>160.5630590412678</v>
+        <v>56.92691254183418</v>
       </c>
       <c r="D14" t="n">
-        <v>149.9732088909432</v>
+        <v>46.33706239150959</v>
       </c>
       <c r="E14" t="n">
         <v>177.220537342522</v>
       </c>
       <c r="F14" t="n">
-        <v>202.1662130119717</v>
+        <v>202.1662130119716</v>
       </c>
       <c r="G14" t="n">
-        <v>210.0943327032895</v>
+        <v>210.0943327032894</v>
       </c>
       <c r="H14" t="n">
-        <v>129.6589680501612</v>
+        <v>129.6589680501611</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.59593441152824</v>
       </c>
       <c r="V14" t="n">
-        <v>19.4062792409616</v>
+        <v>19.40627924096154</v>
       </c>
       <c r="W14" t="n">
-        <v>40.8949894882397</v>
+        <v>144.5311359876732</v>
       </c>
       <c r="X14" t="n">
-        <v>61.3851214492957</v>
+        <v>165.0212679487292</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.5281059263139</v>
+        <v>106.4489056345861</v>
       </c>
     </row>
     <row r="15">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1449489.642128531</v>
+        <v>1449489.64212853</v>
       </c>
     </row>
     <row r="13">
@@ -26320,7 +26320,7 @@
         <v>143373.3592754817</v>
       </c>
       <c r="E2" t="n">
-        <v>123032.0381205445</v>
+        <v>123032.0381205444</v>
       </c>
       <c r="F2" t="n">
         <v>123032.0381205444</v>
@@ -26335,16 +26335,16 @@
         <v>143682.3097262497</v>
       </c>
       <c r="J2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262496</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>294349.2232702162</v>
+        <v>294349.2232702161</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
         <v>103727.1744401288</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>165849.5582910369</v>
+        <v>165849.5582910368</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
         <v>103727.1744401288</v>
       </c>
       <c r="M3" t="n">
-        <v>21791.75073201286</v>
+        <v>21791.75073201277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32608.16144006526</v>
+        <v>32608.16144006551</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,13 +26430,13 @@
         <v>358816.4657487489</v>
       </c>
       <c r="G4" t="n">
-        <v>425794.1076040037</v>
+        <v>425794.1076040038</v>
       </c>
       <c r="H4" t="n">
-        <v>425794.1076040037</v>
+        <v>425794.1076040038</v>
       </c>
       <c r="I4" t="n">
-        <v>425794.1076040037</v>
+        <v>425794.1076040038</v>
       </c>
       <c r="J4" t="n">
         <v>429343.9844908855</v>
@@ -26445,7 +26445,7 @@
         <v>429343.9844908856</v>
       </c>
       <c r="L4" t="n">
-        <v>429343.9844908855</v>
+        <v>429343.9844908856</v>
       </c>
       <c r="M4" t="n">
         <v>428441.8005312391</v>
@@ -26457,7 +26457,7 @@
         <v>428441.8005312391</v>
       </c>
       <c r="P4" t="n">
-        <v>428441.8005312391</v>
+        <v>428441.800531239</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26214.46039316143</v>
+        <v>26214.46039316141</v>
       </c>
       <c r="F5" t="n">
-        <v>26214.46039316141</v>
+        <v>26214.46039316142</v>
       </c>
       <c r="G5" t="n">
-        <v>37114.7601781704</v>
+        <v>37114.76017817041</v>
       </c>
       <c r="H5" t="n">
-        <v>37114.7601781704</v>
+        <v>37114.76017817041</v>
       </c>
       <c r="I5" t="n">
         <v>37114.76017817041</v>
       </c>
       <c r="J5" t="n">
-        <v>54293.89039569218</v>
+        <v>54293.89039569214</v>
       </c>
       <c r="K5" t="n">
-        <v>54293.89039569216</v>
+        <v>54293.89039569214</v>
       </c>
       <c r="L5" t="n">
-        <v>54293.89039569216</v>
+        <v>54293.89039569214</v>
       </c>
       <c r="M5" t="n">
         <v>50282.82605388857</v>
       </c>
       <c r="N5" t="n">
-        <v>50282.82605388858</v>
+        <v>50282.82605388857</v>
       </c>
       <c r="O5" t="n">
-        <v>50282.82605388858</v>
+        <v>50282.82605388857</v>
       </c>
       <c r="P5" t="n">
-        <v>50282.82605388857</v>
+        <v>50282.82605388855</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357870.2006562495</v>
+        <v>-357874.6142341176</v>
       </c>
       <c r="C6" t="n">
-        <v>-357870.2006562495</v>
+        <v>-357874.6142341177</v>
       </c>
       <c r="D6" t="n">
-        <v>-357870.2006562495</v>
+        <v>-357874.6142341177</v>
       </c>
       <c r="E6" t="n">
-        <v>-556348.111291582</v>
+        <v>-556643.1151716633</v>
       </c>
       <c r="F6" t="n">
-        <v>-261998.8880213659</v>
+        <v>-262293.8919014475</v>
       </c>
       <c r="G6" t="n">
         <v>-422953.7324960533</v>
       </c>
       <c r="H6" t="n">
-        <v>-319226.5580559245</v>
+        <v>-319226.5580559244</v>
       </c>
       <c r="I6" t="n">
         <v>-319226.5580559245</v>
@@ -26546,22 +26546,22 @@
         <v>-505805.1234513649</v>
       </c>
       <c r="K6" t="n">
-        <v>-339955.5651603281</v>
+        <v>-339955.5651603282</v>
       </c>
       <c r="L6" t="n">
-        <v>-443682.7396004568</v>
+        <v>-443682.7396004569</v>
       </c>
       <c r="M6" t="n">
         <v>-356834.0675908908</v>
       </c>
       <c r="N6" t="n">
-        <v>-335042.3168588781</v>
+        <v>-335042.316858878</v>
       </c>
       <c r="O6" t="n">
-        <v>-367650.4782989434</v>
+        <v>-367650.4782989436</v>
       </c>
       <c r="P6" t="n">
-        <v>-335042.316858878</v>
+        <v>-335042.3168588779</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>204.7098327297397</v>
       </c>
       <c r="F2" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="G2" t="n">
         <v>334.3688007799008</v>
@@ -26707,25 +26707,25 @@
         <v>334.3688007799008</v>
       </c>
       <c r="J2" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="K2" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="L2" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="M2" t="n">
         <v>197.6588582652589</v>
       </c>
       <c r="N2" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="O2" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="P2" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.6361464994338</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="F4" t="n">
         <v>103.6361464994336</v>
@@ -26808,28 +26808,28 @@
         <v>103.6361464994336</v>
       </c>
       <c r="I4" t="n">
-        <v>103.6361464994336</v>
+        <v>103.6361464994337</v>
       </c>
       <c r="J4" t="n">
-        <v>612.8830501202758</v>
+        <v>612.8830501202747</v>
       </c>
       <c r="K4" t="n">
-        <v>612.8830501202752</v>
+        <v>612.8830501202747</v>
       </c>
       <c r="L4" t="n">
-        <v>612.8830501202752</v>
+        <v>612.8830501202747</v>
       </c>
       <c r="M4" t="n">
-        <v>509.2469036208415</v>
+        <v>509.2469036208412</v>
       </c>
       <c r="N4" t="n">
-        <v>509.2469036208417</v>
+        <v>509.2469036208412</v>
       </c>
       <c r="O4" t="n">
-        <v>509.2469036208417</v>
+        <v>509.2469036208412</v>
       </c>
       <c r="P4" t="n">
-        <v>509.2469036208417</v>
+        <v>509.2469036208412</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>204.7098327297397</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>129.658968050161</v>
@@ -26926,25 +26926,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.76020180008155</v>
+        <v>40.76020180008192</v>
       </c>
       <c r="K2" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
         <v>129.658968050161</v>
       </c>
       <c r="M2" t="n">
-        <v>27.23968841501608</v>
+        <v>27.23968841501596</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.76020180008157</v>
+        <v>40.76020180008189</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.6361464994338</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>509.2469036208422</v>
+        <v>509.246903620841</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>204.7098327297397</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>129.658968050161</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.76020180008155</v>
+        <v>40.76020180008192</v>
       </c>
       <c r="P2" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>103.6361464994338</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28123,13 +28123,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>78.29664428452111</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>204.7098327297397</v>
-      </c>
-      <c r="O11" t="n">
-        <v>78.29664428452313</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>204.7098327297397</v>
@@ -28181,13 +28181,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>161.8062690026029</v>
+        <v>137.076757581733</v>
       </c>
       <c r="H12" t="n">
         <v>109.6591082785412</v>
       </c>
       <c r="I12" t="n">
-        <v>90.33789440965077</v>
+        <v>190.660228611199</v>
       </c>
       <c r="J12" t="n">
         <v>101.6346962078498</v>
@@ -28214,7 +28214,7 @@
         <v>105.9301475100312</v>
       </c>
       <c r="R12" t="n">
-        <v>204.7098327297397</v>
+        <v>129.1170099490616</v>
       </c>
       <c r="S12" t="n">
         <v>166.7282288777068</v>
@@ -28251,31 +28251,31 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>204.7098327297397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>204.7098327297397</v>
+        <v>150.1698976738028</v>
       </c>
       <c r="F13" t="n">
-        <v>172.6614246902768</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.767337086383</v>
       </c>
       <c r="H13" t="n">
-        <v>204.7098327297397</v>
+        <v>160.2387893975297</v>
       </c>
       <c r="I13" t="n">
         <v>148.7249418724712</v>
       </c>
       <c r="J13" t="n">
-        <v>111.1839128036407</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="K13" t="n">
         <v>103.0300923784621</v>
       </c>
       <c r="L13" t="n">
-        <v>204.7098327297397</v>
+        <v>101.6351697582675</v>
       </c>
       <c r="M13" t="n">
         <v>103.8688412439494</v>
@@ -28284,10 +28284,10 @@
         <v>93.46217750295074</v>
       </c>
       <c r="O13" t="n">
-        <v>106.8457198497179</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="P13" t="n">
-        <v>110.6794877973681</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="Q13" t="n">
         <v>132.7780110104484</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="C14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="D14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="E14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="F14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="G14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="H14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="I14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="K14" t="n">
-        <v>204.7098327297397</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="M14" t="n">
-        <v>204.7098327297397</v>
+        <v>142.9845826889414</v>
       </c>
       <c r="N14" t="n">
-        <v>204.7098327297397</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.29664428452269</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="R14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="S14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="T14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="U14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="V14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="W14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="X14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
     </row>
     <row r="15">
@@ -28448,31 +28448,31 @@
         <v>83.0350273337411</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.9301475100312</v>
+        <v>168.2708778595459</v>
       </c>
       <c r="R15" t="n">
-        <v>191.4577402985766</v>
+        <v>129.1170099490616</v>
       </c>
       <c r="S15" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="T15" t="n">
         <v>199.0895003817603</v>
       </c>
       <c r="U15" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="V15" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="W15" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="X15" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
     </row>
     <row r="16">
@@ -28485,13 +28485,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>183.8602858496593</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -28500,58 +28500,58 @@
         <v>167.767337086383</v>
       </c>
       <c r="H16" t="n">
-        <v>160.2387893975297</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="I16" t="n">
         <v>148.7249418724712</v>
       </c>
       <c r="J16" t="n">
-        <v>204.7098327297397</v>
+        <v>111.1839128036407</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7098327297397</v>
+        <v>103.0300923784621</v>
       </c>
       <c r="L16" t="n">
         <v>101.6351697582675</v>
       </c>
       <c r="M16" t="n">
-        <v>103.8688412439494</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>187.4128299912999</v>
+        <v>93.46217750295074</v>
       </c>
       <c r="O16" t="n">
-        <v>106.8457198497179</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="P16" t="n">
-        <v>110.6794877973681</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>132.7780110104484</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="R16" t="n">
         <v>167.2376215800181</v>
       </c>
       <c r="S16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="T16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="U16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="V16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="W16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="X16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
     </row>
     <row r="17">
@@ -28600,25 +28600,25 @@
         <v>140.4516005562433</v>
       </c>
       <c r="O17" t="n">
-        <v>146.0944245227789</v>
+        <v>249.7305710222125</v>
       </c>
       <c r="P17" t="n">
-        <v>263.1738536327829</v>
+        <v>159.5377071333493</v>
       </c>
       <c r="Q17" t="n">
         <v>168.4655139429441</v>
       </c>
       <c r="R17" t="n">
-        <v>287.9032557609856</v>
+        <v>283.7159367105035</v>
       </c>
       <c r="S17" t="n">
-        <v>197.6588582652589</v>
+        <v>301.2950047646924</v>
       </c>
       <c r="T17" t="n">
-        <v>237.2991440850318</v>
+        <v>220.9133502747131</v>
       </c>
       <c r="U17" t="n">
-        <v>334.3688007799008</v>
+        <v>251.305767141268</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -28834,28 +28834,28 @@
         <v>142.8013381152083</v>
       </c>
       <c r="N20" t="n">
-        <v>140.4516005562433</v>
+        <v>244.0877470556769</v>
       </c>
       <c r="O20" t="n">
-        <v>146.0944245227789</v>
+        <v>249.7305710222125</v>
       </c>
       <c r="P20" t="n">
-        <v>159.5377071333493</v>
+        <v>263.1738536327829</v>
       </c>
       <c r="Q20" t="n">
-        <v>184.8513077532628</v>
+        <v>168.4655139429441</v>
       </c>
       <c r="R20" t="n">
-        <v>287.9032557609856</v>
+        <v>283.7159367105036</v>
       </c>
       <c r="S20" t="n">
-        <v>301.2950047646924</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T20" t="n">
-        <v>324.5494967741466</v>
+        <v>220.9133502747131</v>
       </c>
       <c r="U20" t="n">
-        <v>334.3688007799008</v>
+        <v>251.305767141268</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -29056,37 +29056,37 @@
         <v>334.3688007799008</v>
       </c>
       <c r="I23" t="n">
-        <v>191.2546893750211</v>
+        <v>201.0239408755741</v>
       </c>
       <c r="J23" t="n">
         <v>138.730222273057</v>
       </c>
       <c r="K23" t="n">
-        <v>156.6696125558117</v>
+        <v>260.3057590552454</v>
       </c>
       <c r="L23" t="n">
         <v>157.0880011230722</v>
       </c>
       <c r="M23" t="n">
-        <v>246.4374846146419</v>
+        <v>142.8013381152083</v>
       </c>
       <c r="N23" t="n">
-        <v>156.8373943665619</v>
+        <v>140.4516005562433</v>
       </c>
       <c r="O23" t="n">
-        <v>146.0944245227789</v>
+        <v>249.7305710222126</v>
       </c>
       <c r="P23" t="n">
-        <v>159.5377071333493</v>
+        <v>263.173853632783</v>
       </c>
       <c r="Q23" t="n">
         <v>168.4655139429441</v>
       </c>
       <c r="R23" t="n">
-        <v>287.9032557609857</v>
+        <v>184.2671092615521</v>
       </c>
       <c r="S23" t="n">
-        <v>301.2950047646924</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T23" t="n">
         <v>220.9133502747131</v>
@@ -29095,7 +29095,7 @@
         <v>334.3688007799008</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="W23" t="n">
         <v>334.3688007799008</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="C26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="D26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="E26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="F26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="G26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="H26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="I26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="J26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>170.419169850243</v>
       </c>
       <c r="L26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="M26" t="n">
-        <v>170.4191698502426</v>
+        <v>5.097766326816453</v>
       </c>
       <c r="N26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>170.419169850243</v>
       </c>
       <c r="P26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Q26" t="n">
-        <v>170.4191698502426</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="S26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="T26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y26" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -29372,7 +29372,7 @@
         <v>109.6591082785412</v>
       </c>
       <c r="I27" t="n">
-        <v>90.33789440965077</v>
+        <v>80.21214726106585</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29384,7 +29384,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>74.54323996603426</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>170.4191698502426</v>
+        <v>83.59534013774075</v>
       </c>
       <c r="S27" t="n">
         <v>166.7282288777068</v>
       </c>
       <c r="T27" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U27" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V27" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W27" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X27" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y27" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="28">
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>170.419169850243</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -29448,16 +29448,16 @@
         <v>167.767337086383</v>
       </c>
       <c r="H28" t="n">
-        <v>160.2387893975297</v>
+        <v>160.7919662506922</v>
       </c>
       <c r="I28" t="n">
-        <v>170.4191698502426</v>
+        <v>148.7249418724712</v>
       </c>
       <c r="J28" t="n">
-        <v>164.6664850987237</v>
+        <v>77.54767148091739</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>170.419169850243</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29466,40 +29466,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>170.419169850243</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>170.4191698502426</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>110.0897696281568</v>
+        <v>67.43505263269697</v>
       </c>
       <c r="R28" t="n">
         <v>167.2376215800181</v>
       </c>
       <c r="S28" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="T28" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U28" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V28" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W28" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X28" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y28" t="n">
-        <v>170.4191698502426</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="C29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="D29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="E29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="F29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="G29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="H29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="I29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>170.419169850243</v>
       </c>
       <c r="K29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="L29" t="n">
-        <v>170.4191698502428</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>170.4191698502428</v>
+        <v>19.96575917802608</v>
       </c>
       <c r="N29" t="n">
-        <v>170.4191698502428</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Q29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="R29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="S29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="T29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y29" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="30">
@@ -29588,16 +29588,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>170.419169850243</v>
       </c>
       <c r="C30" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>170.419169850243</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -29609,7 +29609,7 @@
         <v>109.6591082785412</v>
       </c>
       <c r="I30" t="n">
-        <v>90.33789440965077</v>
+        <v>80.21214726106585</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29618,7 +29618,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>169.6536048609928</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -29642,22 +29642,22 @@
         <v>166.7282288777068</v>
       </c>
       <c r="T30" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U30" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V30" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W30" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X30" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y30" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="31">
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>170.419169850243</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -29682,13 +29682,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.767337086383</v>
+        <v>170.419169850243</v>
       </c>
       <c r="H31" t="n">
-        <v>160.2387893975297</v>
+        <v>170.419169850243</v>
       </c>
       <c r="I31" t="n">
-        <v>148.7249418724712</v>
+        <v>170.419169850243</v>
       </c>
       <c r="J31" t="n">
         <v>111.1839128036407</v>
@@ -29697,46 +29697,46 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>170.419169850243</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>170.419169850243</v>
       </c>
       <c r="O31" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="P31" t="n">
-        <v>125.4557080493301</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>132.7780110104484</v>
+        <v>67.43505263269697</v>
       </c>
       <c r="R31" t="n">
         <v>167.2376215800181</v>
       </c>
       <c r="S31" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="T31" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U31" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V31" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W31" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X31" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y31" t="n">
-        <v>170.4191698502428</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="C32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="D32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="E32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="F32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="G32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="H32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="I32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="J32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="K32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="M32" t="n">
-        <v>170.4191698502428</v>
+        <v>76.23427054430276</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="P32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="Q32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="R32" t="n">
-        <v>170.4191698502428</v>
+        <v>118.5506893885697</v>
       </c>
       <c r="S32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="T32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="U32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="V32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="W32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="X32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="Y32" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -29846,7 +29846,7 @@
         <v>109.6591082785412</v>
       </c>
       <c r="I33" t="n">
-        <v>90.33789440965077</v>
+        <v>80.21214726106585</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>121.6359189690975</v>
+        <v>83.59534013774075</v>
       </c>
       <c r="S33" t="n">
         <v>166.7282288777068</v>
       </c>
       <c r="T33" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="U33" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="V33" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="W33" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="X33" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="Y33" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -29913,10 +29913,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>170.4191698502428</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>170.4191698502428</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.767337086383</v>
@@ -29928,22 +29928,22 @@
         <v>148.7249418724712</v>
       </c>
       <c r="J34" t="n">
-        <v>170.4191698502428</v>
+        <v>77.54767148091739</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="M34" t="n">
-        <v>95.79667441409701</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>71.51297075468159</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29955,25 +29955,25 @@
         <v>167.2376215800181</v>
       </c>
       <c r="S34" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="T34" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="U34" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="V34" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="W34" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="X34" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="Y34" t="n">
-        <v>170.4191698502428</v>
+        <v>170.4191698502429</v>
       </c>
     </row>
     <row r="35">
@@ -30004,25 +30004,25 @@
         <v>197.6588582652589</v>
       </c>
       <c r="I35" t="n">
-        <v>197.6588582652589</v>
+        <v>191.2546893750211</v>
       </c>
       <c r="J35" t="n">
         <v>197.6588582652589</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>197.6588582652589</v>
       </c>
-      <c r="L35" t="n">
-        <v>175.9789220612458</v>
-      </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="N35" t="n">
-        <v>197.6588582652589</v>
+        <v>108.6207873724087</v>
       </c>
       <c r="O35" t="n">
-        <v>197.6588582652589</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>197.6588582652589</v>
@@ -30071,7 +30071,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -30086,31 +30086,31 @@
         <v>90.33789440965077</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>80.63362065245525</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>61.96199093401879</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>83.0350273337411</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>107.6449208249317</v>
       </c>
       <c r="R36" t="n">
-        <v>129.1170099490616</v>
+        <v>83.59534013774075</v>
       </c>
       <c r="S36" t="n">
         <v>166.7282288777068</v>
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>182.4950817825818</v>
       </c>
       <c r="G37" t="n">
         <v>167.767337086383</v>
@@ -30162,31 +30162,31 @@
         <v>160.2387893975297</v>
       </c>
       <c r="I37" t="n">
-        <v>148.7249418724712</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="J37" t="n">
         <v>111.1839128036407</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>101.6351697582675</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>83.36722918864137</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>197.6588582652589</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6588582652589</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.43505263269697</v>
+        <v>132.7780110104484</v>
       </c>
       <c r="R37" t="n">
         <v>167.2376215800181</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="C38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="D38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="E38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="F38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="G38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="H38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="I38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="J38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="K38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="L38" t="n">
-        <v>197.6588582652588</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="N38" t="n">
-        <v>197.6588582652588</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>197.658858265259</v>
       </c>
       <c r="P38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="Q38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="R38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="S38" t="n">
-        <v>197.6588582652589</v>
+        <v>197.658858265259</v>
       </c>
       <c r="T38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="U38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="V38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="W38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="X38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="Y38" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
     </row>
     <row r="39">
@@ -30305,7 +30305,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>197.658858265259</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -30323,7 +30323,7 @@
         <v>90.33789440965077</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>153.1990535963225</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30332,7 +30332,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>74.54323996603426</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -30353,22 +30353,22 @@
         <v>166.7282288777068</v>
       </c>
       <c r="T39" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="U39" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="V39" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="W39" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="X39" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="Y39" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
     </row>
     <row r="40">
@@ -30378,43 +30378,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>197.658858265259</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>197.658858265259</v>
       </c>
       <c r="D40" t="n">
-        <v>197.6588582652588</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>197.6588582652588</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>197.6588582652588</v>
+        <v>167.767337086383</v>
       </c>
       <c r="H40" t="n">
-        <v>197.6588582652588</v>
+        <v>160.2387893975297</v>
       </c>
       <c r="I40" t="n">
-        <v>169.756892201032</v>
+        <v>148.7249418724712</v>
       </c>
       <c r="J40" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>197.658858265259</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>107.6111398111748</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>197.658858265259</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.43505263269697</v>
+        <v>132.7780110104484</v>
       </c>
       <c r="R40" t="n">
         <v>167.2376215800181</v>
       </c>
       <c r="S40" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="T40" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="U40" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="V40" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="W40" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="X40" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.6588582652588</v>
+        <v>197.658858265259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="C41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="D41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="E41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="F41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="G41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="H41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="I41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="K41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="L41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="M41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="N41" t="n">
-        <v>197.6588582652588</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="P41" t="n">
-        <v>197.6588582652588</v>
+        <v>3.945082039742077</v>
       </c>
       <c r="Q41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="R41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="S41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y41" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -30551,7 +30551,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.076757581733</v>
+        <v>144.2313184447595</v>
       </c>
       <c r="H42" t="n">
         <v>109.6591082785412</v>
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>94.76561655653892</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>129.1170099490616</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="S42" t="n">
-        <v>166.7282288777068</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T42" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U42" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V42" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W42" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X42" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y42" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="43">
@@ -30618,19 +30618,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="G43" t="n">
-        <v>167.767337086383</v>
+        <v>184.9177556200349</v>
       </c>
       <c r="H43" t="n">
         <v>160.2387893975297</v>
@@ -30639,52 +30639,52 @@
         <v>148.7249418724712</v>
       </c>
       <c r="J43" t="n">
-        <v>111.1839128036407</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.6351697582675</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>103.8688412439494</v>
       </c>
       <c r="N43" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6588582652588</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.89716007802875</v>
+        <v>67.43505263269697</v>
       </c>
       <c r="R43" t="n">
         <v>167.2376215800181</v>
       </c>
       <c r="S43" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T43" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U43" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V43" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W43" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X43" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y43" t="n">
-        <v>197.6588582652588</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="C44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="D44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="E44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="F44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="G44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="H44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="I44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="J44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>197.6588582652587</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>75.06818607747171</v>
       </c>
       <c r="O44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="P44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Q44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="R44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="S44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y44" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="45">
@@ -30794,55 +30794,55 @@
         <v>109.6591082785412</v>
       </c>
       <c r="I45" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="J45" t="n">
-        <v>101.6346962078498</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>94.7656165565389</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>80.63362065245522</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>74.54323996603424</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>79.12735402155596</v>
+        <v>109.5591033481161</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>83.03502733374108</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.05345893559314</v>
+        <v>105.9301475100312</v>
       </c>
       <c r="R45" t="n">
-        <v>159.548759275623</v>
+        <v>129.1170099490616</v>
       </c>
       <c r="S45" t="n">
         <v>166.7282288777068</v>
       </c>
       <c r="T45" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U45" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V45" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W45" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X45" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y45" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="C46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="D46" t="n">
-        <v>197.6588582652587</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>197.6588582652587</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="G46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="H46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="I46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="J46" t="n">
-        <v>111.1839128036407</v>
+        <v>109.0799484943012</v>
       </c>
       <c r="K46" t="n">
-        <v>103.0300923784621</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>101.6351697582675</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>103.8688412439494</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.46217750295074</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>106.8457198497179</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>110.6794877973681</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>173.1296537099477</v>
+        <v>132.7780110104484</v>
       </c>
       <c r="R46" t="n">
-        <v>167.2376215800181</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="S46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y46" t="n">
-        <v>197.6588582652587</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
   </sheetData>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4985720821058248</v>
+        <v>0.4985720821058247</v>
       </c>
       <c r="H35" t="n">
-        <v>5.10600133586628</v>
+        <v>5.106001335866278</v>
       </c>
       <c r="I35" t="n">
-        <v>19.22120019538483</v>
+        <v>19.22120019538482</v>
       </c>
       <c r="J35" t="n">
-        <v>42.31568225362929</v>
+        <v>42.31568225362928</v>
       </c>
       <c r="K35" t="n">
-        <v>63.42023848916887</v>
+        <v>63.42023848916885</v>
       </c>
       <c r="L35" t="n">
-        <v>78.67841384691502</v>
+        <v>78.67841384691499</v>
       </c>
       <c r="M35" t="n">
-        <v>87.54489511206448</v>
+        <v>87.54489511206445</v>
       </c>
       <c r="N35" t="n">
-        <v>88.96146304034767</v>
+        <v>88.96146304034764</v>
       </c>
       <c r="O35" t="n">
-        <v>84.00378689890786</v>
+        <v>84.00378689890783</v>
       </c>
       <c r="P35" t="n">
-        <v>71.6952886219203</v>
+        <v>71.69528862192027</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.84017593150543</v>
+        <v>53.84017593150541</v>
       </c>
       <c r="R35" t="n">
-        <v>31.31842855258005</v>
+        <v>31.31842855258004</v>
       </c>
       <c r="S35" t="n">
-        <v>11.3612113209865</v>
+        <v>11.36121132098649</v>
       </c>
       <c r="T35" t="n">
-        <v>2.182499289418249</v>
+        <v>2.182499289418248</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03988576656846598</v>
+        <v>0.03988576656846596</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,40 +33728,40 @@
         <v>0.2667595814776592</v>
       </c>
       <c r="H36" t="n">
-        <v>2.576335957955288</v>
+        <v>2.576335957955287</v>
       </c>
       <c r="I36" t="n">
-        <v>9.184485590349233</v>
+        <v>9.18448559034923</v>
       </c>
       <c r="J36" t="n">
         <v>25.20293045881692</v>
       </c>
       <c r="K36" t="n">
-        <v>43.07582241782009</v>
+        <v>43.07582241782008</v>
       </c>
       <c r="L36" t="n">
-        <v>57.92075912741895</v>
+        <v>57.92075912741893</v>
       </c>
       <c r="M36" t="n">
-        <v>67.59079395598408</v>
+        <v>67.59079395598405</v>
       </c>
       <c r="N36" t="n">
-        <v>69.37972114931453</v>
+        <v>69.37972114931452</v>
       </c>
       <c r="O36" t="n">
-        <v>63.46889042288851</v>
+        <v>63.46889042288849</v>
       </c>
       <c r="P36" t="n">
-        <v>50.93938008058916</v>
+        <v>50.93938008058915</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.05162657599033</v>
+        <v>34.05162657599032</v>
       </c>
       <c r="R36" t="n">
         <v>16.56249401490239</v>
       </c>
       <c r="S36" t="n">
-        <v>4.954942226131079</v>
+        <v>4.954942226131077</v>
       </c>
       <c r="T36" t="n">
         <v>1.075228313061266</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2236422720757482</v>
+        <v>0.2236422720757481</v>
       </c>
       <c r="H37" t="n">
-        <v>1.988383109909836</v>
+        <v>1.988383109909835</v>
       </c>
       <c r="I37" t="n">
-        <v>6.725533054787048</v>
+        <v>6.725533054787046</v>
       </c>
       <c r="J37" t="n">
-        <v>15.8115086357554</v>
+        <v>15.81150863575539</v>
       </c>
       <c r="K37" t="n">
-        <v>25.98316579207329</v>
+        <v>25.98316579207328</v>
       </c>
       <c r="L37" t="n">
-        <v>33.24950652297079</v>
+        <v>33.24950652297078</v>
       </c>
       <c r="M37" t="n">
-        <v>35.05694270365569</v>
+        <v>35.05694270365568</v>
       </c>
       <c r="N37" t="n">
-        <v>34.22336696228248</v>
+        <v>34.22336696228246</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61081860212486</v>
+        <v>31.61081860212485</v>
       </c>
       <c r="P37" t="n">
-        <v>27.04851625177957</v>
+        <v>27.04851625177956</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.72699061899743</v>
+        <v>18.72699061899742</v>
       </c>
       <c r="R37" t="n">
-        <v>10.05576979715137</v>
+        <v>10.05576979715136</v>
       </c>
       <c r="S37" t="n">
-        <v>3.897474868810992</v>
+        <v>3.897474868810991</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9555624352327421</v>
+        <v>0.9555624352327418</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01219866938594992</v>
+        <v>0.01219866938594991</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4985720821058247</v>
+        <v>0.4985720821058248</v>
       </c>
       <c r="H44" t="n">
-        <v>5.106001335866278</v>
+        <v>5.10600133586628</v>
       </c>
       <c r="I44" t="n">
-        <v>19.22120019538482</v>
+        <v>19.22120019538483</v>
       </c>
       <c r="J44" t="n">
-        <v>42.31568225362928</v>
+        <v>42.31568225362929</v>
       </c>
       <c r="K44" t="n">
-        <v>63.42023848916885</v>
+        <v>63.42023848916887</v>
       </c>
       <c r="L44" t="n">
-        <v>78.67841384691499</v>
+        <v>78.67841384691502</v>
       </c>
       <c r="M44" t="n">
-        <v>87.54489511206445</v>
+        <v>87.54489511206448</v>
       </c>
       <c r="N44" t="n">
-        <v>88.96146304034764</v>
+        <v>88.96146304034767</v>
       </c>
       <c r="O44" t="n">
-        <v>84.00378689890783</v>
+        <v>84.00378689890786</v>
       </c>
       <c r="P44" t="n">
-        <v>71.69528862192027</v>
+        <v>71.6952886219203</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.84017593150541</v>
+        <v>53.84017593150543</v>
       </c>
       <c r="R44" t="n">
-        <v>31.31842855258004</v>
+        <v>31.31842855258005</v>
       </c>
       <c r="S44" t="n">
-        <v>11.36121132098649</v>
+        <v>11.3612113209865</v>
       </c>
       <c r="T44" t="n">
-        <v>2.182499289418248</v>
+        <v>2.182499289418249</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03988576656846596</v>
+        <v>0.03988576656846598</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,40 +34439,40 @@
         <v>0.2667595814776592</v>
       </c>
       <c r="H45" t="n">
-        <v>2.576335957955287</v>
+        <v>2.576335957955288</v>
       </c>
       <c r="I45" t="n">
-        <v>9.18448559034923</v>
+        <v>9.184485590349233</v>
       </c>
       <c r="J45" t="n">
         <v>25.20293045881692</v>
       </c>
       <c r="K45" t="n">
-        <v>43.07582241782008</v>
+        <v>43.07582241782009</v>
       </c>
       <c r="L45" t="n">
-        <v>57.92075912741893</v>
+        <v>57.92075912741895</v>
       </c>
       <c r="M45" t="n">
-        <v>67.59079395598405</v>
+        <v>67.59079395598408</v>
       </c>
       <c r="N45" t="n">
-        <v>69.37972114931452</v>
+        <v>69.37972114931453</v>
       </c>
       <c r="O45" t="n">
-        <v>63.46889042288849</v>
+        <v>63.46889042288851</v>
       </c>
       <c r="P45" t="n">
-        <v>50.93938008058915</v>
+        <v>50.93938008058916</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.05162657599032</v>
+        <v>34.05162657599033</v>
       </c>
       <c r="R45" t="n">
         <v>16.56249401490239</v>
       </c>
       <c r="S45" t="n">
-        <v>4.954942226131077</v>
+        <v>4.954942226131079</v>
       </c>
       <c r="T45" t="n">
         <v>1.075228313061266</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2236422720757481</v>
+        <v>0.2236422720757482</v>
       </c>
       <c r="H46" t="n">
-        <v>1.988383109909835</v>
+        <v>1.988383109909836</v>
       </c>
       <c r="I46" t="n">
-        <v>6.725533054787046</v>
+        <v>6.725533054787048</v>
       </c>
       <c r="J46" t="n">
-        <v>15.81150863575539</v>
+        <v>15.8115086357554</v>
       </c>
       <c r="K46" t="n">
-        <v>25.98316579207328</v>
+        <v>25.98316579207329</v>
       </c>
       <c r="L46" t="n">
-        <v>33.24950652297078</v>
+        <v>33.24950652297079</v>
       </c>
       <c r="M46" t="n">
-        <v>35.05694270365568</v>
+        <v>35.05694270365569</v>
       </c>
       <c r="N46" t="n">
-        <v>34.22336696228246</v>
+        <v>34.22336696228248</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61081860212485</v>
+        <v>31.61081860212486</v>
       </c>
       <c r="P46" t="n">
-        <v>27.04851625177956</v>
+        <v>27.04851625177957</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.72699061899742</v>
+        <v>18.72699061899743</v>
       </c>
       <c r="R46" t="n">
-        <v>10.05576979715136</v>
+        <v>10.05576979715137</v>
       </c>
       <c r="S46" t="n">
-        <v>3.897474868810991</v>
+        <v>3.897474868810992</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9555624352327418</v>
+        <v>0.9555624352327421</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01219866938594991</v>
+        <v>0.01219866938594992</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>13.45514335471864</v>
+        <v>13.45514335471862</v>
       </c>
       <c r="J11" t="n">
-        <v>65.97961045668272</v>
+        <v>65.97961045668269</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>103.6361464994338</v>
+        <v>47.62183160666746</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>41.28229162770844</v>
       </c>
       <c r="N11" t="n">
-        <v>64.25823217349645</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>31.89829003081912</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>45.17212559639043</v>
       </c>
       <c r="Q11" t="n">
-        <v>103.6361464994338</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="R11" t="n">
-        <v>20.44272346818764</v>
+        <v>86.15914334117005</v>
       </c>
       <c r="S11" t="n">
-        <v>7.05097446448088</v>
+        <v>7.050974464480852</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35477,13 +35477,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>24.7295114208699</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>100.3223342015482</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>75.59282278067816</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35547,31 +35547,31 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>56.09435971152737</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.27587008317056</v>
+        <v>3.735935027233634</v>
       </c>
       <c r="F13" t="n">
-        <v>27.24037666734561</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>44.47104333220999</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.52591992609898</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>103.0746629714722</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35580,10 +35580,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>97.86411288002176</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>94.03034493237165</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>13.45514335471864</v>
+        <v>13.4551433547187</v>
       </c>
       <c r="J14" t="n">
-        <v>30.36639289901676</v>
+        <v>65.97961045668278</v>
       </c>
       <c r="K14" t="n">
-        <v>48.04022017392803</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>47.62183160666754</v>
       </c>
       <c r="M14" t="n">
-        <v>61.90849461453145</v>
+        <v>95.2308367297755</v>
       </c>
       <c r="N14" t="n">
-        <v>64.25823217349645</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>58.61540820696084</v>
+        <v>58.61540820696089</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>103.6361464994336</v>
+        <v>36.24431878679572</v>
       </c>
       <c r="R14" t="n">
-        <v>23.02625456068555</v>
+        <v>86.15914334117014</v>
       </c>
       <c r="S14" t="n">
-        <v>7.05097446448088</v>
+        <v>7.050974464480937</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35744,13 +35744,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>62.34073034951472</v>
       </c>
       <c r="R15" t="n">
-        <v>62.34073034951506</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>37.98160385203299</v>
+        <v>37.98160385203305</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35781,13 +35781,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>37.46301163111195</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>37.42632320309014</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35796,16 +35796,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>44.47104333221004</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.52591992609901</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>101.6797403512776</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35814,16 +35814,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>93.95065248834915</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>97.86411288002185</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>71.93182171929136</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,25 +35896,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>99.44882744895143</v>
+      </c>
+      <c r="S17" t="n">
         <v>103.6361464994336</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>103.6361464994336</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" t="n">
-        <v>16.3857938103187</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>83.06303363863273</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36130,28 +36130,28 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="Q20" t="n">
-        <v>16.38579381031873</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>103.6361464994336</v>
+        <v>99.44882744895146</v>
       </c>
       <c r="S20" t="n">
-        <v>103.6361464994336</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>103.6361464994336</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>83.06303363863273</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36352,46 +36352,46 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>9.769251500552997</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>103.6361464994337</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>103.6361464994336</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>16.38579381031867</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>103.6361464994337</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>103.6361464994337</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>103.6361464994336</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.6361464994336</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>83.06303363863279</v>
+        <v>83.06303363863273</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.616542309765862</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>200.7855627492594</v>
+        <v>200.7855627492597</v>
       </c>
       <c r="K26" t="n">
-        <v>167.475800015353</v>
+        <v>182.3437928665623</v>
       </c>
       <c r="L26" t="n">
-        <v>430.9923832776208</v>
+        <v>430.9923832776211</v>
       </c>
       <c r="M26" t="n">
-        <v>326.6779545556565</v>
+        <v>311.8099617044406</v>
       </c>
       <c r="N26" t="n">
-        <v>467.3144937059835</v>
+        <v>467.3144937059839</v>
       </c>
       <c r="O26" t="n">
-        <v>234.7057567399665</v>
+        <v>405.1249265902094</v>
       </c>
       <c r="P26" t="n">
-        <v>332.680170888376</v>
+        <v>332.6801708883764</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.2686465672032</v>
+        <v>43.84947671696061</v>
       </c>
       <c r="R26" t="n">
-        <v>51.86848046167299</v>
+        <v>51.86848046167334</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>169.6996204560397</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>220.02128182511</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>137.14549108157</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.82382971250189</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.172348751615147</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36744,31 +36744,31 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.5531768531624398</v>
       </c>
       <c r="I28" t="n">
-        <v>21.6942279777714</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.48257229508303</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.713673966190427</v>
+        <v>174.1328438164334</v>
       </c>
       <c r="L28" t="n">
         <v>60.83953178328692</v>
       </c>
       <c r="M28" t="n">
-        <v>74.64081966549627</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>78.35553934151105</v>
+        <v>248.774709191754</v>
       </c>
       <c r="O28" t="n">
         <v>56.19594651616453</v>
       </c>
       <c r="P28" t="n">
-        <v>194.7462453669157</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>200.7855627492597</v>
       </c>
       <c r="K29" t="n">
-        <v>337.8949698655958</v>
+        <v>337.894969865596</v>
       </c>
       <c r="L29" t="n">
-        <v>430.992383277621</v>
+        <v>260.5732134273782</v>
       </c>
       <c r="M29" t="n">
-        <v>477.131365227867</v>
+        <v>326.6779545556503</v>
       </c>
       <c r="N29" t="n">
-        <v>467.3144937059836</v>
+        <v>296.8953238557409</v>
       </c>
       <c r="O29" t="n">
-        <v>405.1249265902093</v>
+        <v>405.1249265902094</v>
       </c>
       <c r="P29" t="n">
-        <v>162.2610010381334</v>
+        <v>332.6801708883763</v>
       </c>
       <c r="Q29" t="n">
-        <v>146.0501092556799</v>
+        <v>214.2686465672036</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.86848046167331</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36884,7 +36884,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3.885986200375612</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -36893,7 +36893,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>12.77408939484201</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>290.1850359423922</v>
       </c>
       <c r="M30" t="n">
-        <v>306.8451115376109</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.172348751615118</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.651832763859941</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>10.18038045271321</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>21.69422797777171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,19 +36993,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>60.83953178328692</v>
+        <v>68.78400009197544</v>
       </c>
       <c r="M31" t="n">
-        <v>74.64081966549627</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>78.35553934151105</v>
+        <v>186.2435749914007</v>
       </c>
       <c r="O31" t="n">
-        <v>226.6151163664073</v>
+        <v>226.6151163664075</v>
       </c>
       <c r="P31" t="n">
-        <v>103.2175497557167</v>
+        <v>24.32707551667305</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>200.7855627492596</v>
+        <v>31.68894757718591</v>
       </c>
       <c r="K32" t="n">
-        <v>187.4415591933824</v>
+        <v>337.894969865596</v>
       </c>
       <c r="L32" t="n">
-        <v>260.5732134273782</v>
+        <v>430.9923832776211</v>
       </c>
       <c r="M32" t="n">
-        <v>477.131365227867</v>
+        <v>382.946465921927</v>
       </c>
       <c r="N32" t="n">
-        <v>296.8953238557409</v>
+        <v>291.1727382729687</v>
       </c>
       <c r="O32" t="n">
-        <v>405.1249265902093</v>
+        <v>405.1249265902094</v>
       </c>
       <c r="P32" t="n">
-        <v>332.6801708883762</v>
+        <v>332.6801708883763</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.2686465672034</v>
+        <v>214.2686465672035</v>
       </c>
       <c r="R32" t="n">
-        <v>51.86848046167314</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>306.8451115376109</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>306.84511153761</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37209,10 +37209,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>23.98520720367361</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.99812182731154</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.87149836932539</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.713673966190427</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.78400009197527</v>
+        <v>231.2587016335298</v>
       </c>
       <c r="M34" t="n">
-        <v>170.4374940795933</v>
+        <v>74.64081966549627</v>
       </c>
       <c r="N34" t="n">
-        <v>78.35553934151105</v>
+        <v>149.8685100961926</v>
       </c>
       <c r="O34" t="n">
-        <v>56.19594651616453</v>
+        <v>63.57345000052499</v>
       </c>
       <c r="P34" t="n">
         <v>24.32707551667305</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.404168890237777</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>58.92863599220186</v>
+        <v>228.0252511642757</v>
       </c>
       <c r="K35" t="n">
-        <v>200.1898046809926</v>
+        <v>167.475800015353</v>
       </c>
       <c r="L35" t="n">
-        <v>436.5521354886239</v>
+        <v>458.2320716926371</v>
       </c>
       <c r="M35" t="n">
-        <v>306.7121953776243</v>
+        <v>482.1424959792688</v>
       </c>
       <c r="N35" t="n">
-        <v>494.5541821209998</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>432.3646150052253</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>38.12115113190961</v>
+        <v>359.9198593033923</v>
       </c>
       <c r="Q35" t="n">
-        <v>29.1933443223148</v>
+        <v>241.5083349822195</v>
       </c>
       <c r="R35" t="n">
-        <v>13.39174900370678</v>
+        <v>79.10816887668929</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37367,7 +37367,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>40.013777809858</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.02416205740917</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37400,10 +37400,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>137.7527131821682</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1.714773314900544</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>37.07403375965053</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37458,13 +37458,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>48.93391639278771</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.62876588679684</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37473,13 +37473,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>161.7227685301525</v>
+        <v>78.35553934151105</v>
       </c>
       <c r="O37" t="n">
-        <v>90.81313841554092</v>
+        <v>56.19594651616453</v>
       </c>
       <c r="P37" t="n">
-        <v>86.97937046789082</v>
+        <v>24.32707551667305</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.404168890237713</v>
+        <v>6.404168890237884</v>
       </c>
       <c r="J38" t="n">
-        <v>228.0252511642756</v>
+        <v>228.0252511642757</v>
       </c>
       <c r="K38" t="n">
-        <v>365.1346582806119</v>
+        <v>164.7105301489123</v>
       </c>
       <c r="L38" t="n">
-        <v>458.232071692637</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>504.3710536428831</v>
+        <v>504.3710536428832</v>
       </c>
       <c r="N38" t="n">
-        <v>57.20725770901552</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>432.3646150052255</v>
       </c>
       <c r="P38" t="n">
-        <v>354.452427308156</v>
+        <v>359.9198593033923</v>
       </c>
       <c r="Q38" t="n">
-        <v>29.19334432231473</v>
+        <v>241.5083349822196</v>
       </c>
       <c r="R38" t="n">
-        <v>13.39174900370671</v>
+        <v>79.10816887668932</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37601,7 +37601,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>50.21379270062022</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>87.53892048154731</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>137.7527131821686</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37674,43 +37674,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>17.82687808332167</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>30.41203716663114</v>
       </c>
       <c r="D40" t="n">
-        <v>49.04338524704644</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>51.22489561868963</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>29.89152117887579</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>37.42006886772906</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>21.03195032856074</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.1111867843414</v>
+        <v>86.47494546161825</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.62876588679687</v>
       </c>
       <c r="L40" t="n">
-        <v>30.79226938834158</v>
+        <v>5.975970052907317</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>104.1966807623082</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.404168890237742</v>
+        <v>6.404168890237855</v>
       </c>
       <c r="J41" t="n">
-        <v>30.36639289901676</v>
+        <v>228.0252511642757</v>
       </c>
       <c r="K41" t="n">
-        <v>296.4435925053544</v>
+        <v>346.7088358175201</v>
       </c>
       <c r="L41" t="n">
-        <v>458.232071692637</v>
+        <v>458.2320716926371</v>
       </c>
       <c r="M41" t="n">
-        <v>54.85752015005055</v>
+        <v>504.3710536428832</v>
       </c>
       <c r="N41" t="n">
-        <v>57.20725770901555</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>432.3646150052253</v>
+        <v>51.56443374248005</v>
       </c>
       <c r="P41" t="n">
-        <v>359.9198593033922</v>
+        <v>166.2060830778755</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.5083349822194</v>
+        <v>241.5083349822195</v>
       </c>
       <c r="R41" t="n">
-        <v>79.10816887668918</v>
+        <v>13.39174900370686</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37832,7 +37832,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>31.1256746153916</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -37847,7 +37847,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>7.154560863026552</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -37874,16 +37874,16 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>137.7527131821684</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>68.54184831619737</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>30.9306293875522</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -37914,19 +37914,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>30.41203716663111</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>49.04338524704659</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>52.2378102423277</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>17.15041853365185</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>86.47494546161822</v>
       </c>
       <c r="K43" t="n">
-        <v>3.713673966190427</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>113.8156696654621</v>
+        <v>104.1966807623082</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>221.9859337819319</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6.404168890237599</v>
+        <v>6.404168890237777</v>
       </c>
       <c r="J44" t="n">
-        <v>228.0252511642755</v>
+        <v>228.0252511642756</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>365.1346582806119</v>
       </c>
       <c r="L44" t="n">
         <v>260.5732134273782</v>
       </c>
       <c r="M44" t="n">
-        <v>389.6444570415674</v>
+        <v>306.7121953776243</v>
       </c>
       <c r="N44" t="n">
-        <v>296.8953238557409</v>
+        <v>371.9635099332126</v>
       </c>
       <c r="O44" t="n">
-        <v>432.3646150052251</v>
+        <v>51.56443374247999</v>
       </c>
       <c r="P44" t="n">
-        <v>359.9198593033921</v>
+        <v>359.9198593033923</v>
       </c>
       <c r="Q44" t="n">
-        <v>29.19334432231462</v>
+        <v>52.7229428909164</v>
       </c>
       <c r="R44" t="n">
-        <v>13.3917490037066</v>
+        <v>13.39174900370678</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3209638556079</v>
+        <v>107.3209638556081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>30.43174932656014</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.4317493265614</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38148,37 +38148,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>17.82687808332156</v>
       </c>
       <c r="C46" t="n">
-        <v>30.41203716663085</v>
+        <v>30.41203716663102</v>
       </c>
       <c r="D46" t="n">
-        <v>49.04338524704633</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>51.22489561868952</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>52.23781024232744</v>
+        <v>52.23781024232761</v>
       </c>
       <c r="G46" t="n">
-        <v>29.89152117887567</v>
+        <v>29.89152117887584</v>
       </c>
       <c r="H46" t="n">
-        <v>37.42006886772894</v>
+        <v>37.42006886772911</v>
       </c>
       <c r="I46" t="n">
-        <v>48.93391639278745</v>
+        <v>48.93391639278762</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>31.53227701338384</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>60.83953178328693</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38193,10 +38193,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.35164269949922</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>30.42123668524074</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
